--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -16,11 +16,12 @@
     <sheet name="optimization_parameters" sheetId="6" r:id="rId7"/>
     <sheet name="threshold_b" sheetId="16" r:id="rId8"/>
     <sheet name="wt_log2_optimized_expression" sheetId="19" r:id="rId9"/>
-    <sheet name="wt_sigmas" sheetId="20" r:id="rId10"/>
-    <sheet name="dcin5_log2_optimized_expression" sheetId="21" r:id="rId11"/>
+    <sheet name="dcin5_log2_optimized_expression" sheetId="20" r:id="rId10"/>
+    <sheet name="wt_sigmas" sheetId="21" r:id="rId11"/>
     <sheet name="dcin5_sigmas" sheetId="22" r:id="rId12"/>
     <sheet name="optimized_production_rates" sheetId="23" r:id="rId13"/>
     <sheet name="network_optimized_weights" sheetId="24" r:id="rId14"/>
+    <sheet name="optimization_diagnostics" sheetId="25" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="44">
   <si>
     <t>CIN5</t>
   </si>
@@ -131,10 +132,37 @@
     <t>makeGraphs</t>
   </si>
   <si>
-    <t>StandardDeviation</t>
-  </si>
-  <si>
     <t>prorate</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>LSE</t>
+  </si>
+  <si>
+    <t>Penalty</t>
+  </si>
+  <si>
+    <t>min LSE</t>
+  </si>
+  <si>
+    <t>iteration count</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Gene</t>
+  </si>
+  <si>
+    <t>wt SSE</t>
+  </si>
+  <si>
+    <t>dcin5 SSE</t>
   </si>
 </sst>
 </file>
@@ -811,76 +839,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -971,64 +929,64 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-9.8619041495125653E-2</v>
+        <v>-8.9800321449215181E-2</v>
       </c>
       <c r="E2">
-        <v>-0.194377197035393</v>
+        <v>-0.17783723566962159</v>
       </c>
       <c r="F2">
-        <v>-0.2872080370982521</v>
+        <v>-0.26414317546565297</v>
       </c>
       <c r="G2">
-        <v>-0.377056842063688</v>
+        <v>-0.34875359461636379</v>
       </c>
       <c r="H2">
-        <v>-0.46387859554218824</v>
+        <v>-0.43170548228292405</v>
       </c>
       <c r="I2">
-        <v>-0.54764116472013247</v>
+        <v>-0.51303803932179959</v>
       </c>
       <c r="J2">
-        <v>-0.62832300816581788</v>
+        <v>-0.59279132706349291</v>
       </c>
       <c r="K2">
-        <v>-0.70591567222955709</v>
+        <v>-0.67100682676036338</v>
       </c>
       <c r="L2">
-        <v>-0.78042140814536543</v>
+        <v>-0.74772630271945129</v>
       </c>
       <c r="M2">
-        <v>-0.85185500465616293</v>
+        <v>-0.82299227598659463</v>
       </c>
       <c r="N2">
-        <v>-0.92024134198238428</v>
+        <v>-0.89684708166550642</v>
       </c>
       <c r="O2">
-        <v>-0.98561663579888059</v>
+        <v>-0.9693332787484078</v>
       </c>
       <c r="P2">
-        <v>-1.0480259899145263</v>
+        <v>-1.0404928780646217</v>
       </c>
       <c r="Q2">
-        <v>-1.107524163514813</v>
+        <v>-1.1103677031390775</v>
       </c>
       <c r="R2">
-        <v>-1.1641732007697012</v>
+        <v>-1.1789987643329474</v>
       </c>
       <c r="S2">
-        <v>-1.2180428478257987</v>
+        <v>-1.2464265806106019</v>
       </c>
       <c r="T2">
-        <v>-1.2692083357560437</v>
+        <v>-1.3126906763676192</v>
       </c>
       <c r="U2">
-        <v>-1.317750568416491</v>
+        <v>-1.377829870641254</v>
       </c>
       <c r="V2">
-        <v>-1.3637541196935672</v>
+        <v>-1.4418818751815392</v>
       </c>
       <c r="W2">
-        <v>-1.4073072484081381</v>
+        <v>-1.5048835406461176</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -1042,64 +1000,64 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-6.1333465961482592E-2</v>
+        <v>-5.3554472545191481E-2</v>
       </c>
       <c r="E3">
-        <v>-0.11949946733242102</v>
+        <v>-0.10534033101746187</v>
       </c>
       <c r="F3">
-        <v>-0.174564658489687</v>
+        <v>-0.15541295136192257</v>
       </c>
       <c r="G3">
-        <v>-0.22660623778538</v>
+        <v>-0.2038273200147003</v>
       </c>
       <c r="H3">
-        <v>-0.27570932301975143</v>
+        <v>-0.25063751475470381</v>
       </c>
       <c r="I3">
-        <v>-0.32196712784907688</v>
+        <v>-0.29589686364454737</v>
       </c>
       <c r="J3">
-        <v>-0.36547837206924449</v>
+        <v>-0.33965752021893808</v>
       </c>
       <c r="K3">
-        <v>-0.40634725238593372</v>
+        <v>-0.38197061557552464</v>
       </c>
       <c r="L3">
-        <v>-0.44468110218531126</v>
+        <v>-0.42288593483478537</v>
       </c>
       <c r="M3">
-        <v>-0.48059028184670194</v>
+        <v>-0.46245206329717115</v>
       </c>
       <c r="N3">
-        <v>-0.51418614869770529</v>
+        <v>-0.5007161439761052</v>
       </c>
       <c r="O3">
-        <v>-0.54558095613083801</v>
+        <v>-0.53772401759212052</v>
       </c>
       <c r="P3">
-        <v>-0.57488615965901169</v>
+        <v>-0.57352004400459444</v>
       </c>
       <c r="Q3">
-        <v>-0.60221237836388197</v>
+        <v>-0.60814723537794035</v>
       </c>
       <c r="R3">
-        <v>-0.6276680329961466</v>
+        <v>-0.64164712729223439</v>
       </c>
       <c r="S3">
-        <v>-0.65135939340899474</v>
+        <v>-0.6740599043814397</v>
       </c>
       <c r="T3">
-        <v>-0.67338952288209164</v>
+        <v>-0.70542430959397973</v>
       </c>
       <c r="U3">
-        <v>-0.69385841358419986</v>
+        <v>-0.73577776176435217</v>
       </c>
       <c r="V3">
-        <v>-0.71286219831691722</v>
+        <v>-0.76515629383282446</v>
       </c>
       <c r="W3">
-        <v>-0.73049334166480395</v>
+        <v>-0.79359465825360598</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -1184,64 +1142,179 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-4.0414788520990307E-2</v>
+        <v>-4.5851325928348091E-2</v>
       </c>
       <c r="E5">
-        <v>-8.0626020575311985E-2</v>
+        <v>-9.0834146060417342E-2</v>
       </c>
       <c r="F5">
-        <v>-0.12063951324073555</v>
+        <v>-0.13497660518656263</v>
       </c>
       <c r="G5">
-        <v>-0.16046089657532556</v>
+        <v>-0.17830584843860664</v>
       </c>
       <c r="H5">
-        <v>-0.20009560854923744</v>
+        <v>-0.22084797637772191</v>
       </c>
       <c r="I5">
-        <v>-0.23954891524414976</v>
+        <v>-0.2626281490883578</v>
       </c>
       <c r="J5">
-        <v>-0.27882590512854322</v>
+        <v>-0.30367054964856338</v>
       </c>
       <c r="K5">
-        <v>-0.31793150775900902</v>
+        <v>-0.34399847763154839</v>
       </c>
       <c r="L5">
-        <v>-0.35687048830287416</v>
+        <v>-0.38363432380541679</v>
       </c>
       <c r="M5">
-        <v>-0.39564746488904612</v>
+        <v>-0.42259965397966681</v>
       </c>
       <c r="N5">
-        <v>-0.43426690334720125</v>
+        <v>-0.46091519214766763</v>
       </c>
       <c r="O5">
-        <v>-0.47273313333953698</v>
+        <v>-0.49860089557940129</v>
       </c>
       <c r="P5">
-        <v>-0.511050343291094</v>
+        <v>-0.53567594426493337</v>
       </c>
       <c r="Q5">
-        <v>-0.54922259541941854</v>
+        <v>-0.57215880810708175</v>
       </c>
       <c r="R5">
-        <v>-0.5872538208348882</v>
+        <v>-0.60806724102672904</v>
       </c>
       <c r="S5">
-        <v>-0.6251478335726145</v>
+        <v>-0.64341834105334972</v>
       </c>
       <c r="T5">
-        <v>-0.66290832584509485</v>
+        <v>-0.678228547842608</v>
       </c>
       <c r="U5">
-        <v>-0.70053888116950269</v>
+        <v>-0.71251369640221618</v>
       </c>
       <c r="V5">
-        <v>-0.73804296975777961</v>
+        <v>-0.74628901707297057</v>
       </c>
       <c r="W5">
-        <v>-0.77542396033709071</v>
+        <v>-0.77956918237391504</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>0.4</v>
+      </c>
+      <c r="D1">
+        <v>0.8</v>
+      </c>
+      <c r="E1">
+        <v>1.2</v>
+      </c>
+      <c r="F1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>6.7986997775525911E-17</v>
+      </c>
+      <c r="D2">
+        <v>1.3597399555105182E-16</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>3.3993498887762956E-17</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1251,26 +1324,35 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C1">
+        <v>0.4</v>
+      </c>
+      <c r="D1">
+        <v>0.8</v>
+      </c>
+      <c r="E1">
+        <v>1.2</v>
+      </c>
+      <c r="F1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1278,10 +1360,19 @@
         <v>18</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.7986997775525911E-17</v>
+      </c>
+      <c r="D2">
+        <v>1.3597399555105182E-16</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1289,10 +1380,19 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.3993498887762956E-17</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1302,8 +1402,17 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1311,6 +1420,15 @@
         <v>1</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
     </row>
@@ -1337,7 +1455,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1348,7 +1466,7 @@
         <v>18</v>
       </c>
       <c r="C2">
-        <v>0.33764120064483327</v>
+        <v>0.69740719366499726</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1359,7 +1477,7 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>0.62032733419316433</v>
+        <v>1.1568003225019745</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1370,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.8671788092304205</v>
+        <v>2.7591362546192006</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1381,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>9.999538075815142</v>
+        <v>2.3785237031173372</v>
       </c>
     </row>
   </sheetData>
@@ -1393,7 +1511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
@@ -1421,7 +1539,7 @@
         <v>18</v>
       </c>
       <c r="B2">
-        <v>9.9047647093911291</v>
+        <v>1.1390375115164613</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1441,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.9651840646487724</v>
+        <v>1.1651979266914683</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1461,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.15068524181588863</v>
+        <v>1.2314115131035213</v>
       </c>
       <c r="E4">
-        <v>0.24024514254960094</v>
+        <v>1.3472374603129511</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1478,10 +1596,125 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1.7834946467983899E-2</v>
+        <v>8.557768521733114E-2</v>
       </c>
       <c r="E5">
-        <v>7.7490995964415027E-2</v>
+        <v>0.39961091387211822</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>5.6205951121146291E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>2.1248299830536412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>1.2133358649639586E-33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>8.9376526217303694E-3</v>
+      </c>
+      <c r="C8">
+        <v>1.7875305243460739E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>5.5824917406711817E-3</v>
+      </c>
+      <c r="C9">
+        <v>1.1164983481342363E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>3.9542102024695807E-3</v>
+      </c>
+      <c r="C10">
+        <v>3.9542102024695807E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0.27504444391037791</v>
+      </c>
+      <c r="C11">
+        <v>0.50658263183573171</v>
       </c>
     </row>
   </sheetData>
@@ -2473,7 +2706,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2506,7 +2739,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>1E-10</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2522,7 +2755,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="2">
-        <v>100000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2530,7 +2763,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="2">
-        <v>1E-10</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2538,7 +2771,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="2">
-        <v>100000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2546,7 +2779,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="2">
-        <v>1E-10</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2866,64 +3099,64 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-9.8619041495125653E-2</v>
+        <v>-8.9800321449215181E-2</v>
       </c>
       <c r="E2">
-        <v>-0.194377197035393</v>
+        <v>-0.17783723566962159</v>
       </c>
       <c r="F2">
-        <v>-0.2872080370982521</v>
+        <v>-0.26414317546565297</v>
       </c>
       <c r="G2">
-        <v>-0.377056842063688</v>
+        <v>-0.34875359461636379</v>
       </c>
       <c r="H2">
-        <v>-0.46387859554218824</v>
+        <v>-0.43170548228292405</v>
       </c>
       <c r="I2">
-        <v>-0.54764116472013247</v>
+        <v>-0.51303803932179959</v>
       </c>
       <c r="J2">
-        <v>-0.62832300816581788</v>
+        <v>-0.59279132706349291</v>
       </c>
       <c r="K2">
-        <v>-0.70591567222955709</v>
+        <v>-0.67100682676036338</v>
       </c>
       <c r="L2">
-        <v>-0.78042140814536543</v>
+        <v>-0.74772630271945129</v>
       </c>
       <c r="M2">
-        <v>-0.85185500465616293</v>
+        <v>-0.82299227598659463</v>
       </c>
       <c r="N2">
-        <v>-0.92024134198238428</v>
+        <v>-0.89684708166550642</v>
       </c>
       <c r="O2">
-        <v>-0.98561663579888059</v>
+        <v>-0.9693332787484078</v>
       </c>
       <c r="P2">
-        <v>-1.0480259899145263</v>
+        <v>-1.0404928780646217</v>
       </c>
       <c r="Q2">
-        <v>-1.107524163514813</v>
+        <v>-1.1103677031390775</v>
       </c>
       <c r="R2">
-        <v>-1.1641732007697012</v>
+        <v>-1.1789987643329474</v>
       </c>
       <c r="S2">
-        <v>-1.2180428478257987</v>
+        <v>-1.2464265806106019</v>
       </c>
       <c r="T2">
-        <v>-1.2692083357560437</v>
+        <v>-1.3126906763676192</v>
       </c>
       <c r="U2">
-        <v>-1.317750568416491</v>
+        <v>-1.377829870641254</v>
       </c>
       <c r="V2">
-        <v>-1.3637541196935672</v>
+        <v>-1.4418818751815392</v>
       </c>
       <c r="W2">
-        <v>-1.4073072484081381</v>
+        <v>-1.5048835406461176</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -2937,64 +3170,64 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-6.1333465961482592E-2</v>
+        <v>-5.3554472545191481E-2</v>
       </c>
       <c r="E3">
-        <v>-0.11949946733242102</v>
+        <v>-0.10534033101746187</v>
       </c>
       <c r="F3">
-        <v>-0.174564658489687</v>
+        <v>-0.15541295136192257</v>
       </c>
       <c r="G3">
-        <v>-0.22660623778538</v>
+        <v>-0.2038273200147003</v>
       </c>
       <c r="H3">
-        <v>-0.27570932301975143</v>
+        <v>-0.25063751475470381</v>
       </c>
       <c r="I3">
-        <v>-0.32196712784907688</v>
+        <v>-0.29589686364454737</v>
       </c>
       <c r="J3">
-        <v>-0.36547837206924449</v>
+        <v>-0.33965752021893808</v>
       </c>
       <c r="K3">
-        <v>-0.40634725238593372</v>
+        <v>-0.38197061557552464</v>
       </c>
       <c r="L3">
-        <v>-0.44468110218531126</v>
+        <v>-0.42288593483478537</v>
       </c>
       <c r="M3">
-        <v>-0.48059028184670194</v>
+        <v>-0.46245206329717115</v>
       </c>
       <c r="N3">
-        <v>-0.51418614869770529</v>
+        <v>-0.5007161439761052</v>
       </c>
       <c r="O3">
-        <v>-0.54558095613083801</v>
+        <v>-0.53772401759212052</v>
       </c>
       <c r="P3">
-        <v>-0.57488615965901169</v>
+        <v>-0.57352004400459444</v>
       </c>
       <c r="Q3">
-        <v>-0.60221237836388197</v>
+        <v>-0.60814723537794035</v>
       </c>
       <c r="R3">
-        <v>-0.6276680329961466</v>
+        <v>-0.64164712729223439</v>
       </c>
       <c r="S3">
-        <v>-0.65135939340899474</v>
+        <v>-0.6740599043814397</v>
       </c>
       <c r="T3">
-        <v>-0.67338952288209164</v>
+        <v>-0.70542430959397973</v>
       </c>
       <c r="U3">
-        <v>-0.69385841358419986</v>
+        <v>-0.73577776176435217</v>
       </c>
       <c r="V3">
-        <v>-0.71286219831691722</v>
+        <v>-0.76515629383282446</v>
       </c>
       <c r="W3">
-        <v>-0.73049334166480395</v>
+        <v>-0.79359465825360598</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -3008,64 +3241,64 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.8122320178604219E-2</v>
+        <v>7.4345920314281444E-2</v>
       </c>
       <c r="E4">
-        <v>0.16115506718502881</v>
+        <v>0.1387862873421718</v>
       </c>
       <c r="F4">
-        <v>0.22231353709147517</v>
+        <v>0.19504398075803131</v>
       </c>
       <c r="G4">
-        <v>0.27393915702298077</v>
+        <v>0.24445619535924734</v>
       </c>
       <c r="H4">
-        <v>0.31778881113165003</v>
+        <v>0.28808099282175181</v>
       </c>
       <c r="I4">
-        <v>0.35521492080182371</v>
+        <v>0.3267702767439874</v>
       </c>
       <c r="J4">
-        <v>0.38728046056804166</v>
+        <v>0.36121939459262042</v>
       </c>
       <c r="K4">
-        <v>0.41483649373611109</v>
+        <v>0.39200333574599211</v>
       </c>
       <c r="L4">
-        <v>0.43857481079775151</v>
+        <v>0.41960228361880236</v>
       </c>
       <c r="M4">
-        <v>0.4590655570581188</v>
+        <v>0.44442125188544235</v>
       </c>
       <c r="N4">
-        <v>0.47678391143800891</v>
+        <v>0.46680430214292035</v>
       </c>
       <c r="O4">
-        <v>0.49213005189624992</v>
+        <v>0.48704596892456742</v>
       </c>
       <c r="P4">
-        <v>0.50544376977346306</v>
+        <v>0.50539967340460468</v>
       </c>
       <c r="Q4">
-        <v>0.51701582377902455</v>
+        <v>0.5220847587784978</v>
       </c>
       <c r="R4">
-        <v>0.52709645545353001</v>
+        <v>0.53729173165300481</v>
       </c>
       <c r="S4">
-        <v>0.53590221799300619</v>
+        <v>0.55118680460021641</v>
       </c>
       <c r="T4">
-        <v>0.54362120094766153</v>
+        <v>0.56391531043720267</v>
       </c>
       <c r="U4">
-        <v>0.55041733782410085</v>
+        <v>0.57560475729047178</v>
       </c>
       <c r="V4">
-        <v>0.55643376319069138</v>
+        <v>0.58636714421203395</v>
       </c>
       <c r="W4">
-        <v>0.56179564823038086</v>
+        <v>0.5963010868083789</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
@@ -3079,64 +3312,64 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-5.544573857891149E-2</v>
+        <v>-5.8604556661095743E-2</v>
       </c>
       <c r="E5">
-        <v>-0.11130168744344732</v>
+        <v>-0.11678083924349103</v>
       </c>
       <c r="F5">
-        <v>-0.16745744886986488</v>
+        <v>-0.17448802461226795</v>
       </c>
       <c r="G5">
-        <v>-0.22381365459040461</v>
+        <v>-0.23168628341320835</v>
       </c>
       <c r="H5">
-        <v>-0.28027919590956796</v>
+        <v>-0.28833618327924054</v>
       </c>
       <c r="I5">
-        <v>-0.33676909098987357</v>
+        <v>-0.34439836996876116</v>
       </c>
       <c r="J5">
-        <v>-0.39320289273634029</v>
+        <v>-0.39983318516774291</v>
       </c>
       <c r="K5">
-        <v>-0.44950350258326338</v>
+        <v>-0.45460058100867851</v>
       </c>
       <c r="L5">
-        <v>-0.50559619660389432</v>
+        <v>-0.50865989173411208</v>
       </c>
       <c r="M5">
-        <v>-0.56140798652660906</v>
+        <v>-0.56196992615853658</v>
       </c>
       <c r="N5">
-        <v>-0.61686701740698968</v>
+        <v>-0.61448886482108267</v>
       </c>
       <c r="O5">
-        <v>-0.67190228574984379</v>
+        <v>-0.66617449926014538</v>
       </c>
       <c r="P5">
-        <v>-0.72644328970789274</v>
+        <v>-0.71698423762054075</v>
       </c>
       <c r="Q5">
-        <v>-0.78042000766489061</v>
+        <v>-0.76687546770195336</v>
       </c>
       <c r="R5">
-        <v>-0.83376273961336556</v>
+        <v>-0.81580565499870039</v>
       </c>
       <c r="S5">
-        <v>-0.88640229214160449</v>
+        <v>-0.86373280603844371</v>
       </c>
       <c r="T5">
-        <v>-0.93826997456240491</v>
+        <v>-0.91061563837583892</v>
       </c>
       <c r="U5">
-        <v>-0.98929795353976857</v>
+        <v>-0.9564141159027354</v>
       </c>
       <c r="V5">
-        <v>-1.0394193752650196</v>
+        <v>-1.0010896635263178</v>
       </c>
       <c r="W5">
-        <v>-1.0885688459320206</v>
+        <v>-1.0446057291203115</v>
       </c>
     </row>
   </sheetData>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_graph_output.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr date1904="1"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
+  <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="160" yWindow="60" windowWidth="25600" windowHeight="16000" tabRatio="644" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -26,12 +26,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="39">
   <si>
     <t>CIN5</t>
   </si>
@@ -45,33 +50,12 @@
     <t>kk_max</t>
   </si>
   <si>
-    <t>SystematicName</t>
-  </si>
-  <si>
-    <t>StandardName</t>
-  </si>
-  <si>
-    <t>DegradationRate</t>
-  </si>
-  <si>
-    <t>YOR028C</t>
-  </si>
-  <si>
-    <t>YPR104C</t>
-  </si>
-  <si>
-    <t>rows genes affected/cols genes controlling</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
     <t>optimization_parameter</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>MaxIter</t>
   </si>
   <si>
@@ -84,21 +68,12 @@
     <t>TolX</t>
   </si>
   <si>
-    <t>YLR131C</t>
-  </si>
-  <si>
     <t>ACE2</t>
   </si>
   <si>
-    <t>production_rates</t>
-  </si>
-  <si>
     <t>AFT2</t>
   </si>
   <si>
-    <t>YPL202C</t>
-  </si>
-  <si>
     <t>Strain</t>
   </si>
   <si>
@@ -123,18 +98,6 @@
     <t>dcin5</t>
   </si>
   <si>
-    <t>simtime</t>
-  </si>
-  <si>
-    <t>estimateParams</t>
-  </si>
-  <si>
-    <t>makeGraphs</t>
-  </si>
-  <si>
-    <t>prorate</t>
-  </si>
-  <si>
     <t>Parameter</t>
   </si>
   <si>
@@ -163,13 +126,40 @@
   </si>
   <si>
     <t>dcin5 SSE</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>production_rate</t>
+  </si>
+  <si>
+    <t>degradation_rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulators/controllers </t>
+  </si>
+  <si>
+    <t>make_graphs</t>
+  </si>
+  <si>
+    <t>estimate_params</t>
+  </si>
+  <si>
+    <t>simulation_timepoints</t>
+  </si>
+  <si>
+    <t>expression_timepoints</t>
+  </si>
+  <si>
+    <t>threshold_b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -194,6 +184,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Verdana"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -212,9 +214,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -223,7 +227,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -240,8 +243,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -645,426 +651,389 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="13">
       <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
-      <c r="H1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" ht="13">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="B2">
         <v>0.5</v>
       </c>
-      <c r="H2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" ht="13">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:7" ht="13">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D4" s="5"/>
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7" ht="13">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:7" ht="13">
       <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" s="4"/>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:7" ht="13">
       <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" s="4"/>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7" ht="13">
       <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8" s="4"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:7" ht="13">
       <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9" s="4"/>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:7" ht="13">
       <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10" s="4"/>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:7" ht="13">
       <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11" s="4"/>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:7" ht="13">
       <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12" s="4"/>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:7" ht="13">
       <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="H13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:7" ht="13">
       <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14" s="4"/>
-      <c r="H14"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:7" ht="13">
       <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15" s="4"/>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:7" ht="13">
       <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16" s="4"/>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7" ht="13">
       <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17" s="4"/>
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7" ht="13">
       <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18" s="4"/>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" ht="13">
       <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7" ht="13">
       <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20" s="4"/>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:7" ht="13">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="C21"/>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7" ht="13">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="C22"/>
-      <c r="H22"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E24" s="5"/>
+      <c r="G22"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="D24" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:W5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F1">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H1">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I1">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="J1">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K1">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="L1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="M1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N1">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="O1">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="P1">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q1">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="R1">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="S1">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="T1">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="U1">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V1">
-        <v>1.9</v>
-      </c>
-      <c r="W1">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-8.9800321449215181E-2</v>
       </c>
       <c r="D2">
-        <v>-8.9800321449215181E-2</v>
+        <v>-0.17783723566962159</v>
       </c>
       <c r="E2">
-        <v>-0.17783723566962159</v>
+        <v>-0.26414317546565297</v>
       </c>
       <c r="F2">
-        <v>-0.26414317546565297</v>
+        <v>-0.34875359461636379</v>
       </c>
       <c r="G2">
-        <v>-0.34875359461636379</v>
+        <v>-0.43170548228292405</v>
       </c>
       <c r="H2">
-        <v>-0.43170548228292405</v>
+        <v>-0.51303803932179959</v>
       </c>
       <c r="I2">
-        <v>-0.51303803932179959</v>
+        <v>-0.59279132706349291</v>
       </c>
       <c r="J2">
-        <v>-0.59279132706349291</v>
+        <v>-0.67100682676036338</v>
       </c>
       <c r="K2">
-        <v>-0.67100682676036338</v>
+        <v>-0.74772630271945129</v>
       </c>
       <c r="L2">
-        <v>-0.74772630271945129</v>
+        <v>-0.82299227598659463</v>
       </c>
       <c r="M2">
-        <v>-0.82299227598659463</v>
+        <v>-0.89684708166550642</v>
       </c>
       <c r="N2">
-        <v>-0.89684708166550642</v>
+        <v>-0.9693332787484078</v>
       </c>
       <c r="O2">
-        <v>-0.9693332787484078</v>
+        <v>-1.0404928780646217</v>
       </c>
       <c r="P2">
-        <v>-1.0404928780646217</v>
+        <v>-1.1103677031390775</v>
       </c>
       <c r="Q2">
-        <v>-1.1103677031390775</v>
+        <v>-1.1789987643329474</v>
       </c>
       <c r="R2">
-        <v>-1.1789987643329474</v>
+        <v>-1.2464265806106019</v>
       </c>
       <c r="S2">
-        <v>-1.2464265806106019</v>
+        <v>-1.3126906763676192</v>
       </c>
       <c r="T2">
-        <v>-1.3126906763676192</v>
+        <v>-1.377829870641254</v>
       </c>
       <c r="U2">
-        <v>-1.377829870641254</v>
+        <v>-1.4418818751815392</v>
       </c>
       <c r="V2">
-        <v>-1.4418818751815392</v>
-      </c>
-      <c r="W2">
         <v>-1.5048835406461176</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>-5.3554472545191481E-2</v>
       </c>
       <c r="D3">
-        <v>-5.3554472545191481E-2</v>
+        <v>-0.10534033101746187</v>
       </c>
       <c r="E3">
-        <v>-0.10534033101746187</v>
+        <v>-0.15541295136192257</v>
       </c>
       <c r="F3">
-        <v>-0.15541295136192257</v>
+        <v>-0.2038273200147003</v>
       </c>
       <c r="G3">
-        <v>-0.2038273200147003</v>
+        <v>-0.25063751475470381</v>
       </c>
       <c r="H3">
-        <v>-0.25063751475470381</v>
+        <v>-0.29589686364454737</v>
       </c>
       <c r="I3">
-        <v>-0.29589686364454737</v>
+        <v>-0.33965752021893808</v>
       </c>
       <c r="J3">
-        <v>-0.33965752021893808</v>
+        <v>-0.38197061557552464</v>
       </c>
       <c r="K3">
-        <v>-0.38197061557552464</v>
+        <v>-0.42288593483478537</v>
       </c>
       <c r="L3">
-        <v>-0.42288593483478537</v>
+        <v>-0.46245206329717115</v>
       </c>
       <c r="M3">
-        <v>-0.46245206329717115</v>
+        <v>-0.5007161439761052</v>
       </c>
       <c r="N3">
-        <v>-0.5007161439761052</v>
+        <v>-0.53772401759212052</v>
       </c>
       <c r="O3">
-        <v>-0.53772401759212052</v>
+        <v>-0.57352004400459444</v>
       </c>
       <c r="P3">
-        <v>-0.57352004400459444</v>
+        <v>-0.60814723537794035</v>
       </c>
       <c r="Q3">
-        <v>-0.60814723537794035</v>
+        <v>-0.64164712729223439</v>
       </c>
       <c r="R3">
-        <v>-0.64164712729223439</v>
+        <v>-0.6740599043814397</v>
       </c>
       <c r="S3">
-        <v>-0.6740599043814397</v>
+        <v>-0.70542430959397973</v>
       </c>
       <c r="T3">
-        <v>-0.70542430959397973</v>
+        <v>-0.73577776176435217</v>
       </c>
       <c r="U3">
-        <v>-0.73577776176435217</v>
+        <v>-0.76515629383282446</v>
       </c>
       <c r="V3">
-        <v>-0.76515629383282446</v>
-      </c>
-      <c r="W3">
         <v>-0.79359465825360598</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
@@ -1127,145 +1096,138 @@
       <c r="V4">
         <v>0</v>
       </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-4.5851325928348091E-2</v>
       </c>
       <c r="D5">
-        <v>-4.5851325928348091E-2</v>
+        <v>-9.0834146060417342E-2</v>
       </c>
       <c r="E5">
-        <v>-9.0834146060417342E-2</v>
+        <v>-0.13497660518656263</v>
       </c>
       <c r="F5">
-        <v>-0.13497660518656263</v>
+        <v>-0.17830584843860664</v>
       </c>
       <c r="G5">
-        <v>-0.17830584843860664</v>
+        <v>-0.22084797637772191</v>
       </c>
       <c r="H5">
-        <v>-0.22084797637772191</v>
+        <v>-0.2626281490883578</v>
       </c>
       <c r="I5">
-        <v>-0.2626281490883578</v>
+        <v>-0.30367054964856338</v>
       </c>
       <c r="J5">
-        <v>-0.30367054964856338</v>
+        <v>-0.34399847763154839</v>
       </c>
       <c r="K5">
-        <v>-0.34399847763154839</v>
+        <v>-0.38363432380541679</v>
       </c>
       <c r="L5">
-        <v>-0.38363432380541679</v>
+        <v>-0.42259965397966681</v>
       </c>
       <c r="M5">
-        <v>-0.42259965397966681</v>
+        <v>-0.46091519214766763</v>
       </c>
       <c r="N5">
-        <v>-0.46091519214766763</v>
+        <v>-0.49860089557940129</v>
       </c>
       <c r="O5">
-        <v>-0.49860089557940129</v>
+        <v>-0.53567594426493337</v>
       </c>
       <c r="P5">
-        <v>-0.53567594426493337</v>
+        <v>-0.57215880810708175</v>
       </c>
       <c r="Q5">
-        <v>-0.57215880810708175</v>
+        <v>-0.60806724102672904</v>
       </c>
       <c r="R5">
-        <v>-0.60806724102672904</v>
+        <v>-0.64341834105334972</v>
       </c>
       <c r="S5">
-        <v>-0.64341834105334972</v>
+        <v>-0.678228547842608</v>
       </c>
       <c r="T5">
-        <v>-0.678228547842608</v>
+        <v>-0.71251369640221618</v>
       </c>
       <c r="U5">
-        <v>-0.71251369640221618</v>
+        <v>-0.74628901707297057</v>
       </c>
       <c r="V5">
-        <v>-0.74628901707297057</v>
-      </c>
-      <c r="W5">
         <v>-0.77956918237391504</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="B1">
+        <v>0.4</v>
       </c>
       <c r="C1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D1">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="E1">
-        <v>1.2</v>
-      </c>
-      <c r="F1">
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>6.7986997775525911E-17</v>
       </c>
       <c r="C2">
-        <v>6.7986997775525911E-17</v>
+        <v>1.3597399555105182E-16</v>
       </c>
       <c r="D2">
-        <v>1.3597399555105182E-16</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>3.3993498887762956E-17</v>
       </c>
       <c r="C3">
-        <v>3.3993498887762956E-17</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1273,15 +1235,12 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
@@ -1293,16 +1252,13 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1311,76 +1267,72 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="B1">
+        <v>0.4</v>
       </c>
       <c r="C1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D1">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="E1">
-        <v>1.2</v>
-      </c>
-      <c r="F1">
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>6.7986997775525911E-17</v>
       </c>
       <c r="C2">
-        <v>6.7986997775525911E-17</v>
+        <v>1.3597399555105182E-16</v>
       </c>
       <c r="D2">
-        <v>1.3597399555105182E-16</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>3.3993498887762956E-17</v>
       </c>
       <c r="C3">
-        <v>3.3993498887762956E-17</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1388,15 +1340,12 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
@@ -1408,16 +1357,13 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1426,84 +1372,76 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="B2">
         <v>0.69740719366499726</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="B3">
         <v>1.1568003225019745</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>2.7591362546192006</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="B5">
         <v>2.3785237031173372</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1511,21 +1449,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1534,9 +1470,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>1.1390375115164613</v>
@@ -1551,9 +1487,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1568,7 +1504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1585,7 +1521,7 @@
         <v>1.3472374603129511</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1604,6 +1540,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1615,67 +1556,67 @@
       <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>5.6205951121146291E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>2.1248299830536412</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>1.2133358649639586E-33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>1012</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>8.9376526217303694E-3</v>
@@ -1684,9 +1625,9 @@
         <v>1.7875305243460739E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>5.5824917406711817E-3</v>
@@ -1695,7 +1636,7 @@
         <v>1.1164983481342363E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1706,7 +1647,7 @@
         <v>3.9542102024695807E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1719,189 +1660,166 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="13">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="13">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="13">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="13">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="13">
       <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" ht="13">
       <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" ht="13">
       <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" ht="13">
       <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" ht="13">
       <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2" ht="13">
       <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" ht="13">
       <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" ht="13">
       <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" ht="13">
       <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2" ht="13">
       <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" ht="13">
       <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" ht="13">
       <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" ht="13">
       <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" ht="13">
       <c r="A19"/>
       <c r="B19"/>
-      <c r="C19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:2" ht="13">
       <c r="A20"/>
       <c r="B20"/>
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:2" ht="13">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="C21"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:2" ht="13">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="C22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="14">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="B1" s="10">
+        <v>0.4</v>
       </c>
       <c r="C1" s="11">
         <v>0.4</v>
@@ -1910,7 +1828,7 @@
         <v>0.4</v>
       </c>
       <c r="E1" s="13">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F1" s="14">
         <v>0.8</v>
@@ -1919,16 +1837,16 @@
         <v>0.8</v>
       </c>
       <c r="H1" s="16">
-        <v>0.8</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="I1" s="17">
         <v>1.2000000000000002</v>
       </c>
       <c r="J1" s="18">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="K1" s="19">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="L1" s="20">
         <v>1.6</v>
@@ -1936,17 +1854,14 @@
       <c r="M1" s="21">
         <v>1.6</v>
       </c>
-      <c r="N1" s="22">
-        <v>1.6</v>
-      </c>
-      <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="14">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B2" s="10">
+        <v>-0.37633430629205178</v>
       </c>
       <c r="C2" s="11">
         <v>-0.37633430629205178</v>
@@ -1955,7 +1870,7 @@
         <v>-0.37633430629205178</v>
       </c>
       <c r="E2" s="13">
-        <v>-0.37633430629205178</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="F2" s="14">
         <v>-0.70666646734338179</v>
@@ -1964,7 +1879,7 @@
         <v>-0.70666646734338179</v>
       </c>
       <c r="H2" s="16">
-        <v>-0.70666646734338179</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="I2" s="17">
         <v>-0.98723929967009216</v>
@@ -1973,7 +1888,7 @@
         <v>-0.98723929967009216</v>
       </c>
       <c r="K2" s="19">
-        <v>-0.98723929967009216</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="L2" s="20">
         <v>-1.2174432654761544</v>
@@ -1981,16 +1896,13 @@
       <c r="M2" s="21">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="N2" s="22">
-        <v>-1.2174432654761544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" ht="14">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="10">
+        <v>-0.22771865423983556</v>
       </c>
       <c r="C3" s="11">
         <v>-0.22771865423983556</v>
@@ -1999,7 +1911,7 @@
         <v>-0.22771865423983556</v>
       </c>
       <c r="E3" s="13">
-        <v>-0.22771865423983556</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="F3" s="14">
         <v>-0.40801774302656463</v>
@@ -2008,7 +1920,7 @@
         <v>-0.40801774302656463</v>
       </c>
       <c r="H3" s="16">
-        <v>-0.40801774302656463</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="I3" s="17">
         <v>-0.5464126532391167</v>
@@ -2017,7 +1929,7 @@
         <v>-0.5464126532391167</v>
       </c>
       <c r="K3" s="19">
-        <v>-0.5464126532391167</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="L3" s="20">
         <v>-0.64984386018298912</v>
@@ -2025,16 +1937,13 @@
       <c r="M3" s="21">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="N3" s="22">
-        <v>-0.64984386018298912</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" ht="14">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.26929382132237512</v>
       </c>
       <c r="C4" s="11">
         <v>0.26929382132237512</v>
@@ -2043,7 +1952,7 @@
         <v>0.26929382132237512</v>
       </c>
       <c r="E4" s="13">
-        <v>0.26929382132237512</v>
+        <v>0.41593537248224854</v>
       </c>
       <c r="F4" s="14">
         <v>0.41593537248224854</v>
@@ -2052,7 +1961,7 @@
         <v>0.41593537248224854</v>
       </c>
       <c r="H4" s="16">
-        <v>0.41593537248224854</v>
+        <v>0.49751163358969142</v>
       </c>
       <c r="I4" s="17">
         <v>0.49751163358969142</v>
@@ -2061,7 +1970,7 @@
         <v>0.49751163358969142</v>
       </c>
       <c r="K4" s="19">
-        <v>0.49751163358969142</v>
+        <v>0.54159993841241572</v>
       </c>
       <c r="L4" s="20">
         <v>0.54159993841241572</v>
@@ -2069,16 +1978,13 @@
       <c r="M4" s="21">
         <v>0.54159993841241572</v>
       </c>
-      <c r="N4" s="22">
-        <v>0.54159993841241572</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" ht="14">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="10">
+        <v>-0.29093615522070321</v>
       </c>
       <c r="C5" s="11">
         <v>-0.29093615522070321</v>
@@ -2087,7 +1993,7 @@
         <v>-0.29093615522070321</v>
       </c>
       <c r="E5" s="13">
-        <v>-0.29093615522070321</v>
+        <v>-0.57977180156386388</v>
       </c>
       <c r="F5" s="14">
         <v>-0.57977180156386388</v>
@@ -2096,7 +2002,7 @@
         <v>-0.57977180156386388</v>
       </c>
       <c r="H5" s="16">
-        <v>-0.57977180156386388</v>
+        <v>-0.85583465653557034</v>
       </c>
       <c r="I5" s="17">
         <v>-0.85583465653557034</v>
@@ -2105,7 +2011,7 @@
         <v>-0.85583465653557034</v>
       </c>
       <c r="K5" s="19">
-        <v>-0.85583465653557034</v>
+        <v>-1.1097262320569594</v>
       </c>
       <c r="L5" s="20">
         <v>-1.1097262320569594</v>
@@ -2113,329 +2019,321 @@
       <c r="M5" s="21">
         <v>-1.1097262320569594</v>
       </c>
-      <c r="N5" s="22">
-        <v>-1.1097262320569594</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G6" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J10" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G12" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I14" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="I18" s="2"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="18" spans="3:12">
+      <c r="H18" s="2"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="F20" s="2"/>
-      <c r="M20" s="2"/>
+    </row>
+    <row r="19" spans="3:12">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="3:12">
+      <c r="E20" s="2"/>
+      <c r="L20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="14">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="10">
+        <v>30</v>
+      </c>
+      <c r="B1" s="9">
         <v>0.4</v>
       </c>
-      <c r="D1" s="10">
+      <c r="C1" s="9">
         <v>0.4</v>
       </c>
-      <c r="E1" s="10">
+      <c r="D1" s="9">
         <v>0.4</v>
       </c>
-      <c r="F1" s="10">
+      <c r="E1" s="9">
         <v>0.8</v>
       </c>
-      <c r="G1" s="10">
+      <c r="F1" s="9">
         <v>0.8</v>
       </c>
-      <c r="H1" s="10">
+      <c r="G1" s="9">
         <v>0.8</v>
       </c>
-      <c r="I1" s="10">
+      <c r="H1" s="9">
         <v>1.2000000000000002</v>
       </c>
-      <c r="J1" s="10">
+      <c r="I1" s="9">
         <v>1.2000000000000002</v>
       </c>
-      <c r="K1" s="10">
+      <c r="J1" s="9">
         <v>1.2</v>
       </c>
-      <c r="L1" s="10">
+      <c r="K1" s="9">
         <v>1.6</v>
       </c>
-      <c r="M1" s="10">
+      <c r="L1" s="9">
         <v>1.6</v>
       </c>
-      <c r="N1" s="10">
+      <c r="M1" s="9">
         <v>1.6</v>
       </c>
-      <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="14">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="10">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="D2" s="10">
+      <c r="C2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="E2" s="10">
+      <c r="D2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="F2" s="10">
+      <c r="E2" s="9">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="G2" s="10">
+      <c r="F2" s="9">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="H2" s="10">
+      <c r="G2" s="9">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="I2" s="10">
+      <c r="H2" s="9">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="J2" s="10">
+      <c r="I2" s="9">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="K2" s="10">
+      <c r="J2" s="9">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="L2" s="10">
+      <c r="K2" s="9">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="M2" s="10">
+      <c r="L2" s="9">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="N2" s="10">
+      <c r="M2" s="9">
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="14">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="10">
+        <v>11</v>
+      </c>
+      <c r="B3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="D3" s="10">
+      <c r="C3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="E3" s="10">
+      <c r="D3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="F3" s="10">
+      <c r="E3" s="9">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="G3" s="10">
+      <c r="F3" s="9">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="H3" s="10">
+      <c r="G3" s="9">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="I3" s="10">
+      <c r="H3" s="9">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="J3" s="10">
+      <c r="I3" s="9">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="K3" s="10">
+      <c r="J3" s="9">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="L3" s="10">
+      <c r="K3" s="9">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="M3" s="10">
+      <c r="L3" s="9">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="N3" s="10">
+      <c r="M3" s="9">
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="14">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10">
-        <v>0</v>
-      </c>
-      <c r="K4" s="10">
-        <v>0</v>
-      </c>
-      <c r="L4" s="10">
-        <v>0</v>
-      </c>
-      <c r="M4" s="10">
-        <v>0</v>
-      </c>
-      <c r="N4" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="14">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="D5" s="10">
+      <c r="C5" s="9">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="E5" s="10">
+      <c r="D5" s="9">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="F5" s="10">
+      <c r="E5" s="9">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="G5" s="10">
+      <c r="F5" s="9">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="H5" s="10">
+      <c r="G5" s="9">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="I5" s="10">
+      <c r="H5" s="9">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="J5" s="10">
+      <c r="I5" s="9">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="K5" s="10">
+      <c r="J5" s="9">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="L5" s="10">
+      <c r="K5" s="9">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="M5" s="10">
+      <c r="L5" s="9">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="N5" s="10">
+      <c r="M5" s="9">
         <v>-0.40259011361710589</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="L7" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
+      <c r="B6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F11" s="2"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C15" s="2"/>
-    </row>
-    <row r="18" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="I19" s="2"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="I20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="22" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="L22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="E11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="E13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="18" spans="6:13">
+      <c r="F18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="6:13">
+      <c r="H19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="6:13">
+      <c r="H20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="22" spans="6:13">
+      <c r="K22" s="2"/>
+      <c r="M22" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2443,41 +2341,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="37.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>9</v>
+    <row r="1" spans="1:5">
+      <c r="A1" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -2486,9 +2382,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -2503,9 +2399,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -2520,7 +2416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -2537,7 +2433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -2559,6 +2455,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2566,40 +2467,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="37.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>9</v>
+    <row r="1" spans="1:22">
+      <c r="A1" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2625,9 +2524,9 @@
       <c r="U1"/>
       <c r="V1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -2642,9 +2541,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -2659,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2676,7 +2575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -2698,6 +2597,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2706,35 +2610,35 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2742,7 +2646,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2750,83 +2654,83 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1">
       <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9">
+        <v>37</v>
+      </c>
+      <c r="B13" s="8">
         <v>0.4</v>
       </c>
       <c r="C13">
@@ -2839,42 +2743,42 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="8">
+        <v>17</v>
+      </c>
+      <c r="B15" s="7">
         <v>3</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="8">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7">
         <v>0</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2945,6 +2849,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2952,34 +2861,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2987,7 +2899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -2995,384 +2907,379 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="2"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:W5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F1">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H1">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I1">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="J1">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K1">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="L1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="M1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N1">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="O1">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="P1">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q1">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="R1">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="S1">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="T1">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="U1">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V1">
-        <v>1.9</v>
-      </c>
-      <c r="W1">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-8.9800321449215181E-2</v>
       </c>
       <c r="D2">
-        <v>-8.9800321449215181E-2</v>
+        <v>-0.17783723566962159</v>
       </c>
       <c r="E2">
-        <v>-0.17783723566962159</v>
+        <v>-0.26414317546565297</v>
       </c>
       <c r="F2">
-        <v>-0.26414317546565297</v>
+        <v>-0.34875359461636379</v>
       </c>
       <c r="G2">
-        <v>-0.34875359461636379</v>
+        <v>-0.43170548228292405</v>
       </c>
       <c r="H2">
-        <v>-0.43170548228292405</v>
+        <v>-0.51303803932179959</v>
       </c>
       <c r="I2">
-        <v>-0.51303803932179959</v>
+        <v>-0.59279132706349291</v>
       </c>
       <c r="J2">
-        <v>-0.59279132706349291</v>
+        <v>-0.67100682676036338</v>
       </c>
       <c r="K2">
-        <v>-0.67100682676036338</v>
+        <v>-0.74772630271945129</v>
       </c>
       <c r="L2">
-        <v>-0.74772630271945129</v>
+        <v>-0.82299227598659463</v>
       </c>
       <c r="M2">
-        <v>-0.82299227598659463</v>
+        <v>-0.89684708166550642</v>
       </c>
       <c r="N2">
-        <v>-0.89684708166550642</v>
+        <v>-0.9693332787484078</v>
       </c>
       <c r="O2">
-        <v>-0.9693332787484078</v>
+        <v>-1.0404928780646217</v>
       </c>
       <c r="P2">
-        <v>-1.0404928780646217</v>
+        <v>-1.1103677031390775</v>
       </c>
       <c r="Q2">
-        <v>-1.1103677031390775</v>
+        <v>-1.1789987643329474</v>
       </c>
       <c r="R2">
-        <v>-1.1789987643329474</v>
+        <v>-1.2464265806106019</v>
       </c>
       <c r="S2">
-        <v>-1.2464265806106019</v>
+        <v>-1.3126906763676192</v>
       </c>
       <c r="T2">
-        <v>-1.3126906763676192</v>
+        <v>-1.377829870641254</v>
       </c>
       <c r="U2">
-        <v>-1.377829870641254</v>
+        <v>-1.4418818751815392</v>
       </c>
       <c r="V2">
-        <v>-1.4418818751815392</v>
-      </c>
-      <c r="W2">
         <v>-1.5048835406461176</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>-5.3554472545191481E-2</v>
       </c>
       <c r="D3">
-        <v>-5.3554472545191481E-2</v>
+        <v>-0.10534033101746187</v>
       </c>
       <c r="E3">
-        <v>-0.10534033101746187</v>
+        <v>-0.15541295136192257</v>
       </c>
       <c r="F3">
-        <v>-0.15541295136192257</v>
+        <v>-0.2038273200147003</v>
       </c>
       <c r="G3">
-        <v>-0.2038273200147003</v>
+        <v>-0.25063751475470381</v>
       </c>
       <c r="H3">
-        <v>-0.25063751475470381</v>
+        <v>-0.29589686364454737</v>
       </c>
       <c r="I3">
-        <v>-0.29589686364454737</v>
+        <v>-0.33965752021893808</v>
       </c>
       <c r="J3">
-        <v>-0.33965752021893808</v>
+        <v>-0.38197061557552464</v>
       </c>
       <c r="K3">
-        <v>-0.38197061557552464</v>
+        <v>-0.42288593483478537</v>
       </c>
       <c r="L3">
-        <v>-0.42288593483478537</v>
+        <v>-0.46245206329717115</v>
       </c>
       <c r="M3">
-        <v>-0.46245206329717115</v>
+        <v>-0.5007161439761052</v>
       </c>
       <c r="N3">
-        <v>-0.5007161439761052</v>
+        <v>-0.53772401759212052</v>
       </c>
       <c r="O3">
-        <v>-0.53772401759212052</v>
+        <v>-0.57352004400459444</v>
       </c>
       <c r="P3">
-        <v>-0.57352004400459444</v>
+        <v>-0.60814723537794035</v>
       </c>
       <c r="Q3">
-        <v>-0.60814723537794035</v>
+        <v>-0.64164712729223439</v>
       </c>
       <c r="R3">
-        <v>-0.64164712729223439</v>
+        <v>-0.6740599043814397</v>
       </c>
       <c r="S3">
-        <v>-0.6740599043814397</v>
+        <v>-0.70542430959397973</v>
       </c>
       <c r="T3">
-        <v>-0.70542430959397973</v>
+        <v>-0.73577776176435217</v>
       </c>
       <c r="U3">
-        <v>-0.73577776176435217</v>
+        <v>-0.76515629383282446</v>
       </c>
       <c r="V3">
-        <v>-0.76515629383282446</v>
-      </c>
-      <c r="W3">
         <v>-0.79359465825360598</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>7.4345920314281444E-2</v>
       </c>
       <c r="D4">
-        <v>7.4345920314281444E-2</v>
+        <v>0.1387862873421718</v>
       </c>
       <c r="E4">
-        <v>0.1387862873421718</v>
+        <v>0.19504398075803131</v>
       </c>
       <c r="F4">
-        <v>0.19504398075803131</v>
+        <v>0.24445619535924734</v>
       </c>
       <c r="G4">
-        <v>0.24445619535924734</v>
+        <v>0.28808099282175181</v>
       </c>
       <c r="H4">
-        <v>0.28808099282175181</v>
+        <v>0.3267702767439874</v>
       </c>
       <c r="I4">
-        <v>0.3267702767439874</v>
+        <v>0.36121939459262042</v>
       </c>
       <c r="J4">
-        <v>0.36121939459262042</v>
+        <v>0.39200333574599211</v>
       </c>
       <c r="K4">
-        <v>0.39200333574599211</v>
+        <v>0.41960228361880236</v>
       </c>
       <c r="L4">
-        <v>0.41960228361880236</v>
+        <v>0.44442125188544235</v>
       </c>
       <c r="M4">
-        <v>0.44442125188544235</v>
+        <v>0.46680430214292035</v>
       </c>
       <c r="N4">
-        <v>0.46680430214292035</v>
+        <v>0.48704596892456742</v>
       </c>
       <c r="O4">
-        <v>0.48704596892456742</v>
+        <v>0.50539967340460468</v>
       </c>
       <c r="P4">
-        <v>0.50539967340460468</v>
+        <v>0.5220847587784978</v>
       </c>
       <c r="Q4">
-        <v>0.5220847587784978</v>
+        <v>0.53729173165300481</v>
       </c>
       <c r="R4">
-        <v>0.53729173165300481</v>
+        <v>0.55118680460021641</v>
       </c>
       <c r="S4">
-        <v>0.55118680460021641</v>
+        <v>0.56391531043720267</v>
       </c>
       <c r="T4">
-        <v>0.56391531043720267</v>
+        <v>0.57560475729047178</v>
       </c>
       <c r="U4">
-        <v>0.57560475729047178</v>
+        <v>0.58636714421203395</v>
       </c>
       <c r="V4">
-        <v>0.58636714421203395</v>
-      </c>
-      <c r="W4">
         <v>0.5963010868083789</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-5.8604556661095743E-2</v>
       </c>
       <c r="D5">
-        <v>-5.8604556661095743E-2</v>
+        <v>-0.11678083924349103</v>
       </c>
       <c r="E5">
-        <v>-0.11678083924349103</v>
+        <v>-0.17448802461226795</v>
       </c>
       <c r="F5">
-        <v>-0.17448802461226795</v>
+        <v>-0.23168628341320835</v>
       </c>
       <c r="G5">
-        <v>-0.23168628341320835</v>
+        <v>-0.28833618327924054</v>
       </c>
       <c r="H5">
-        <v>-0.28833618327924054</v>
+        <v>-0.34439836996876116</v>
       </c>
       <c r="I5">
-        <v>-0.34439836996876116</v>
+        <v>-0.39983318516774291</v>
       </c>
       <c r="J5">
-        <v>-0.39983318516774291</v>
+        <v>-0.45460058100867851</v>
       </c>
       <c r="K5">
-        <v>-0.45460058100867851</v>
+        <v>-0.50865989173411208</v>
       </c>
       <c r="L5">
-        <v>-0.50865989173411208</v>
+        <v>-0.56196992615853658</v>
       </c>
       <c r="M5">
-        <v>-0.56196992615853658</v>
+        <v>-0.61448886482108267</v>
       </c>
       <c r="N5">
-        <v>-0.61448886482108267</v>
+        <v>-0.66617449926014538</v>
       </c>
       <c r="O5">
-        <v>-0.66617449926014538</v>
+        <v>-0.71698423762054075</v>
       </c>
       <c r="P5">
-        <v>-0.71698423762054075</v>
+        <v>-0.76687546770195336</v>
       </c>
       <c r="Q5">
-        <v>-0.76687546770195336</v>
+        <v>-0.81580565499870039</v>
       </c>
       <c r="R5">
-        <v>-0.81580565499870039</v>
+        <v>-0.86373280603844371</v>
       </c>
       <c r="S5">
-        <v>-0.86373280603844371</v>
+        <v>-0.91061563837583892</v>
       </c>
       <c r="T5">
-        <v>-0.91061563837583892</v>
+        <v>-0.9564141159027354</v>
       </c>
       <c r="U5">
-        <v>-0.9564141159027354</v>
+        <v>-1.0010896635263178</v>
       </c>
       <c r="V5">
-        <v>-1.0010896635263178</v>
-      </c>
-      <c r="W5">
         <v>-1.0446057291203115</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_graph_output.xlsx
@@ -137,9 +137,6 @@
     <t>degradation_rate</t>
   </si>
   <si>
-    <t xml:space="preserve">regulators/controllers </t>
-  </si>
-  <si>
     <t>make_graphs</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t>threshold_b</t>
+  </si>
+  <si>
+    <t>regulators/controllers</t>
   </si>
 </sst>
 </file>
@@ -1455,7 +1455,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2367,7 +2367,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="22" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2492,7 +2492,7 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="22" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2696,7 +2696,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="8">
         <v>1</v>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="8">
         <v>0.4</v>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2861,18 +2861,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_graph_output.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="60" windowWidth="25600" windowHeight="16000" tabRatio="644" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="40">
   <si>
     <t>CIN5</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Sheet</t>
   </si>
   <si>
-    <t>Sigmoid</t>
-  </si>
-  <si>
     <t>dcin5</t>
   </si>
   <si>
@@ -153,6 +150,12 @@
   </si>
   <si>
     <t>regulators/controllers</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>MM</t>
   </si>
 </sst>
 </file>
@@ -657,24 +660,24 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
         <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
     </row>
-    <row r="2" spans="1:7" ht="13">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -683,7 +686,7 @@
       </c>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:7" ht="13">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -692,7 +695,7 @@
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7" ht="13">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -702,7 +705,7 @@
       <c r="D4" s="5"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:7" ht="13">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -712,94 +715,94 @@
       <c r="D5" s="5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:7" ht="13">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6"/>
       <c r="B6" s="4"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:7" ht="13">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7"/>
       <c r="B7" s="4"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7" ht="13">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8" s="4"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:7" ht="13">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9"/>
       <c r="B9" s="4"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:7" ht="13">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10" s="4"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" ht="13">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11" s="4"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:7" ht="13">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12" s="4"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:7" ht="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13" s="4"/>
       <c r="D13" s="5"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:7" ht="13">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14" s="4"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:7" ht="13">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15" s="4"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:7" ht="13">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16" s="4"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" ht="13">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17" s="4"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" ht="13">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18" s="4"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" ht="13">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19" s="4"/>
       <c r="D19" s="5"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" ht="13">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20" s="4"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" ht="13">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" ht="13">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
       <c r="G22"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D24" s="5"/>
     </row>
   </sheetData>
@@ -823,11 +826,11 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -893,7 +896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -961,7 +964,7 @@
         <v>-1.5048835406461176</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1029,7 +1032,7 @@
         <v>-0.79359465825360598</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1097,7 +1100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1183,11 +1186,11 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1202,7 +1205,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1219,7 +1222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1236,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1253,7 +1256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1288,11 +1291,11 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1307,7 +1310,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1324,7 +1327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1341,7 +1344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1358,7 +1361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1393,17 +1396,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1411,7 +1414,7 @@
         <v>0.69740719366499726</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1419,7 +1422,7 @@
         <v>1.1568003225019745</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1427,7 +1430,7 @@
         <v>2.7591362546192006</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1451,11 +1454,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1470,7 +1473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1487,7 +1490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1504,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1521,7 +1524,7 @@
         <v>1.3472374603129511</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1552,69 +1555,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>22</v>
       </c>
       <c r="B2">
         <v>5.6205951121146291E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>2.1248299830536412</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>1.2133358649639586E-33</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>1012</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1625,7 +1628,7 @@
         <v>1.7875305243460739E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1636,7 +1639,7 @@
         <v>1.1164983481342363E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1647,7 +1650,7 @@
         <v>3.9542102024695807E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1676,22 +1679,22 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1699,7 +1702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="13">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1707,7 +1710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="13">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1715,7 +1718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1723,71 +1726,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="13">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" ht="13">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7"/>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:2" ht="13">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:2" ht="13">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9"/>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" ht="13">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" ht="13">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" ht="13">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:2" ht="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" ht="13">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:2" ht="13">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" ht="13">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" ht="13">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:2" ht="13">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" ht="13">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:2" ht="13">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20"/>
     </row>
-    <row r="21" spans="1:2" ht="13">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:2" ht="13">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
     </row>
@@ -1812,11 +1815,11 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="14">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="10">
         <v>0.4</v>
@@ -1856,7 +1859,7 @@
       </c>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14" ht="14">
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1897,7 +1900,7 @@
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="14">
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1938,7 +1941,7 @@
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="14">
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1979,7 +1982,7 @@
         <v>0.54159993841241572</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14">
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -2020,31 +2023,31 @@
         <v>-1.1097262320569594</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F6" s="2"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I10" s="2"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F12" s="2"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H14" s="2"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="18" spans="3:12">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="H18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="3:12">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="E20" s="2"/>
       <c r="L20" s="2"/>
     </row>
@@ -2069,11 +2072,11 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="14">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="9">
         <v>0.4</v>
@@ -2113,7 +2116,7 @@
       </c>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14" ht="14">
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2154,7 +2157,7 @@
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="14">
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2195,7 +2198,7 @@
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="14">
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2236,7 +2239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14">
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -2277,51 +2280,51 @@
         <v>-0.40259011361710589</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K7" s="2"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
     </row>
-    <row r="18" spans="6:13">
+    <row r="18" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="6:13">
+    <row r="19" spans="6:13" x14ac:dyDescent="0.2">
       <c r="H19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="6:13">
+    <row r="20" spans="6:13" x14ac:dyDescent="0.2">
       <c r="H20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="22" spans="6:13">
+    <row r="22" spans="6:13" x14ac:dyDescent="0.2">
       <c r="K22" s="2"/>
       <c r="M22" s="2"/>
     </row>
@@ -2343,31 +2346,31 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.125" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2382,7 +2385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -2399,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -2416,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -2433,7 +2436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -2469,30 +2472,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2524,7 +2527,7 @@
       <c r="U1"/>
       <c r="V1"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2541,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2558,7 +2561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2575,7 +2578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -2609,16 +2612,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -2638,7 +2641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2646,7 +2649,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2654,7 +2657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2662,7 +2665,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2670,7 +2673,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2678,7 +2681,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2686,31 +2689,31 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>38</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2718,7 +2721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1">
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -2726,9 +2729,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1">
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="8">
         <v>0.4</v>
@@ -2743,7 +2746,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2751,10 +2754,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2765,7 +2768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2776,9 +2779,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2863,17 +2866,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2881,7 +2884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2889,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2897,7 +2900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -2905,10 +2908,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
     </row>
   </sheetData>
@@ -2930,11 +2933,11 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -3000,7 +3003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3068,7 +3071,7 @@
         <v>-1.5048835406461176</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3136,7 +3139,7 @@
         <v>-0.79359465825360598</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3204,7 +3207,7 @@
         <v>0.5963010868083789</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="11" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -149,13 +149,13 @@
     <t>threshold_b</t>
   </si>
   <si>
-    <t>regulators/controllers</t>
-  </si>
-  <si>
     <t>Model</t>
   </si>
   <si>
     <t>MM</t>
+  </si>
+  <si>
+    <t>targets/regulators</t>
   </si>
 </sst>
 </file>
@@ -1452,13 +1452,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2370,7 +2370,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2495,7 +2495,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2612,7 +2612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -2691,10 +2691,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2864,13 +2864,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
         <v>36</v>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="11" activeTab="13"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="41">
   <si>
     <t>CIN5</t>
   </si>
@@ -149,13 +149,16 @@
     <t>threshold_b</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>MM</t>
   </si>
   <si>
     <t>targets/regulators</t>
+  </si>
+  <si>
+    <t>L_curve</t>
+  </si>
+  <si>
+    <t>production_function</t>
   </si>
 </sst>
 </file>
@@ -170,6 +173,7 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -179,6 +183,7 @@
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -192,12 +197,14 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="11"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1452,13 +1459,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2370,7 +2377,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2495,7 +2502,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2610,10 +2617,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2690,24 +2697,24 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B9" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="8">
         <v>1</v>
@@ -2715,15 +2722,15 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>15</v>
-      </c>
-      <c r="B11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>16</v>
       </c>
       <c r="B12" s="8">
         <v>0</v>
@@ -2731,119 +2738,127 @@
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B14" s="8">
         <v>0.4</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>0.8</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>1.2</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>1.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="7">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>0.1</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>0.2</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>0.30000000000000004</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>0.4</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>0.5</v>
       </c>
-      <c r="H17">
+      <c r="H18">
         <v>0.60000000000000009</v>
       </c>
-      <c r="I17">
+      <c r="I18">
         <v>0.70000000000000007</v>
       </c>
-      <c r="J17">
+      <c r="J18">
         <v>0.8</v>
       </c>
-      <c r="K17">
+      <c r="K18">
         <v>0.9</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N17">
+      <c r="N18">
         <v>1.2000000000000002</v>
       </c>
-      <c r="O17">
+      <c r="O18">
         <v>1.3</v>
       </c>
-      <c r="P17">
+      <c r="P18">
         <v>1.4000000000000001</v>
       </c>
-      <c r="Q17">
+      <c r="Q18">
         <v>1.5</v>
       </c>
-      <c r="R17">
+      <c r="R18">
         <v>1.6</v>
       </c>
-      <c r="S17">
+      <c r="S18">
         <v>1.7000000000000002</v>
       </c>
-      <c r="T17">
+      <c r="T18">
         <v>1.8</v>
       </c>
-      <c r="U17">
+      <c r="U18">
         <v>1.9000000000000001</v>
       </c>
-      <c r="V17">
+      <c r="V18">
         <v>2</v>
       </c>
     </row>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="13" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -119,12 +119,6 @@
     <t>Gene</t>
   </si>
   <si>
-    <t>wt SSE</t>
-  </si>
-  <si>
-    <t>dcin5 SSE</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -159,6 +153,12 @@
   </si>
   <si>
     <t>production_function</t>
+  </si>
+  <si>
+    <t>wt MSE</t>
+  </si>
+  <si>
+    <t>dcin5 MSE</t>
   </si>
 </sst>
 </file>
@@ -675,10 +675,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -837,7 +837,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1197,7 +1197,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1302,7 +1302,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1407,10 +1407,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1465,7 +1465,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1562,8 +1562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1618,10 +1618,10 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1695,10 +1695,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1826,7 +1826,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="10">
         <v>0.4</v>
@@ -2083,7 +2083,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="9">
         <v>0.4</v>
@@ -2377,7 +2377,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2502,7 +2502,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2619,7 +2619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -2698,15 +2698,15 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" s="8">
         <v>0</v>
@@ -2714,7 +2714,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="8">
         <v>1</v>
@@ -2722,7 +2722,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
@@ -2746,7 +2746,7 @@
     </row>
     <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14" s="8">
         <v>0.4</v>
@@ -2796,7 +2796,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2887,10 +2887,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2954,7 +2954,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1">
         <v>0</v>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_graph_output.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\r\GRNmap\test_files\sixteen_tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="13" activeTab="14"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="40">
   <si>
     <t>CIN5</t>
   </si>
@@ -75,9 +80,6 @@
   </si>
   <si>
     <t>Strain</t>
-  </si>
-  <si>
-    <t>Deletion</t>
   </si>
   <si>
     <t>wt</t>
@@ -334,6 +336,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -675,10 +680,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
         <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -837,7 +842,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1197,7 +1202,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1302,7 +1307,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1407,10 +1412,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
         <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1465,7 +1470,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1562,7 +1567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1570,15 +1575,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>5.6205951121146291E-3</v>
@@ -1586,7 +1591,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>2.1248299830536412</v>
@@ -1594,7 +1599,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>1.2133358649639586E-33</v>
@@ -1602,7 +1607,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>1012</v>
@@ -1610,18 +1615,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
         <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1695,10 +1700,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1826,7 +1831,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="10">
         <v>0.4</v>
@@ -2083,7 +2088,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="9">
         <v>0.4</v>
@@ -2377,7 +2382,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2502,7 +2507,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2617,10 +2622,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" activeCellId="3" sqref="F1 C1 D1 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2628,27 +2633,15 @@
     <col min="1" max="1" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2656,7 +2649,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2664,7 +2657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2672,7 +2665,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2680,7 +2673,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2688,7 +2681,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2696,57 +2689,57 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
       <c r="B13" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="8">
         <v>0.4</v>
@@ -2761,20 +2754,20 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="7">
         <v>3</v>
@@ -2785,80 +2778,69 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7">
+        <v>31</v>
+      </c>
+      <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
         <v>0.1</v>
       </c>
-      <c r="D18">
+      <c r="D17">
         <v>0.2</v>
       </c>
-      <c r="E18">
+      <c r="E17">
         <v>0.30000000000000004</v>
       </c>
-      <c r="F18">
+      <c r="F17">
         <v>0.4</v>
       </c>
-      <c r="G18">
+      <c r="G17">
         <v>0.5</v>
       </c>
-      <c r="H18">
+      <c r="H17">
         <v>0.60000000000000009</v>
       </c>
-      <c r="I18">
+      <c r="I17">
         <v>0.70000000000000007</v>
       </c>
-      <c r="J18">
+      <c r="J17">
         <v>0.8</v>
       </c>
-      <c r="K18">
+      <c r="K17">
         <v>0.9</v>
       </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N18">
+      <c r="N17">
         <v>1.2000000000000002</v>
       </c>
-      <c r="O18">
+      <c r="O17">
         <v>1.3</v>
       </c>
-      <c r="P18">
+      <c r="P17">
         <v>1.4000000000000001</v>
       </c>
-      <c r="Q18">
+      <c r="Q17">
         <v>1.5</v>
       </c>
-      <c r="R18">
+      <c r="R17">
         <v>1.6</v>
       </c>
-      <c r="S18">
+      <c r="S17">
         <v>1.7000000000000002</v>
       </c>
-      <c r="T18">
+      <c r="T17">
         <v>1.8</v>
       </c>
-      <c r="U18">
+      <c r="U17">
         <v>1.9000000000000001</v>
       </c>
-      <c r="V18">
+      <c r="V17">
         <v>2</v>
       </c>
     </row>
@@ -2887,10 +2869,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2954,7 +2936,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1">
         <v>0</v>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_graph_output.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\r\GRNmap\test_files\sixteen_tests\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15280" tabRatio="644" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -41,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="40">
   <si>
     <t>CIN5</t>
   </si>
@@ -91,9 +86,6 @@
     <t>fix_b</t>
   </si>
   <si>
-    <t>Sheet</t>
-  </si>
-  <si>
     <t>dcin5</t>
   </si>
   <si>
@@ -161,21 +153,19 @@
   </si>
   <si>
     <t>dcin5 MSE</t>
+  </si>
+  <si>
+    <t>cols regulators/rows targets</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -208,6 +198,17 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -228,34 +229,19 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -666,159 +652,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0.5</v>
       </c>
-      <c r="G2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="G3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="G4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="G5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6"/>
-      <c r="B6" s="4"/>
-      <c r="G6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7"/>
-      <c r="B7" s="4"/>
-      <c r="G7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8"/>
-      <c r="B8" s="4"/>
-      <c r="G8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9"/>
-      <c r="B9" s="4"/>
-      <c r="G9"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10"/>
-      <c r="B10" s="4"/>
-      <c r="G10"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11"/>
-      <c r="B11" s="4"/>
-      <c r="G11"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12"/>
-      <c r="B12" s="4"/>
-      <c r="G12"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13"/>
-      <c r="B13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="G13"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14"/>
-      <c r="B14" s="4"/>
-      <c r="G14"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15"/>
-      <c r="B15" s="4"/>
-      <c r="G15"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16"/>
-      <c r="B16" s="4"/>
-      <c r="G16"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17"/>
-      <c r="B17" s="4"/>
-      <c r="G17"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18"/>
-      <c r="B18" s="4"/>
-      <c r="G18"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19"/>
-      <c r="B19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="G19"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20"/>
-      <c r="B20" s="4"/>
-      <c r="G20"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="G21"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="G22"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D24" s="5"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="D24" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter alignWithMargins="0"/>
@@ -835,348 +774,351 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="8.7109375" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
+    <row r="1" spans="1:22">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
         <v>0.1</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>0.2</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="1">
         <v>0.3</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="1">
         <v>0.4</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="1">
         <v>0.5</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="1">
         <v>0.6</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="1">
         <v>0.7</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="1">
         <v>0.8</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="1">
         <v>0.9</v>
       </c>
-      <c r="L1">
-        <v>1</v>
-      </c>
-      <c r="M1">
+      <c r="L1" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="1">
         <v>1.2</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="1">
         <v>1.3</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="1">
         <v>1.4</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" s="1">
         <v>1.5</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="1">
         <v>1.6</v>
       </c>
-      <c r="S1">
+      <c r="S1" s="1">
         <v>1.7</v>
       </c>
-      <c r="T1">
+      <c r="T1" s="1">
         <v>1.8</v>
       </c>
-      <c r="U1">
+      <c r="U1" s="1">
         <v>1.9</v>
       </c>
-      <c r="V1">
+      <c r="V1" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:22">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
         <v>-8.9800321449215181E-2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>-0.17783723566962159</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>-0.26414317546565297</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>-0.34875359461636379</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>-0.43170548228292405</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>-0.51303803932179959</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>-0.59279132706349291</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>-0.67100682676036338</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>-0.74772630271945129</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>-0.82299227598659463</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="1">
         <v>-0.89684708166550642</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="1">
         <v>-0.9693332787484078</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="1">
         <v>-1.0404928780646217</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="1">
         <v>-1.1103677031390775</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="1">
         <v>-1.1789987643329474</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="1">
         <v>-1.2464265806106019</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="1">
         <v>-1.3126906763676192</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="1">
         <v>-1.377829870641254</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="1">
         <v>-1.4418818751815392</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="1">
         <v>-1.5048835406461176</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:22">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
         <v>-5.3554472545191481E-2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>-0.10534033101746187</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>-0.15541295136192257</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>-0.2038273200147003</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>-0.25063751475470381</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>-0.29589686364454737</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>-0.33965752021893808</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>-0.38197061557552464</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>-0.42288593483478537</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <v>-0.46245206329717115</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="1">
         <v>-0.5007161439761052</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="1">
         <v>-0.53772401759212052</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="1">
         <v>-0.57352004400459444</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="1">
         <v>-0.60814723537794035</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="1">
         <v>-0.64164712729223439</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="1">
         <v>-0.6740599043814397</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="1">
         <v>-0.70542430959397973</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="1">
         <v>-0.73577776176435217</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="1">
         <v>-0.76515629383282446</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="1">
         <v>-0.79359465825360598</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
+    <row r="4" spans="1:22">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
         <v>-4.5851325928348091E-2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>-9.0834146060417342E-2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>-0.13497660518656263</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>-0.17830584843860664</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>-0.22084797637772191</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>-0.2626281490883578</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>-0.30367054964856338</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>-0.34399847763154839</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>-0.38363432380541679</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>-0.42259965397966681</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="1">
         <v>-0.46091519214766763</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <v>-0.49860089557940129</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="1">
         <v>-0.53567594426493337</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="1">
         <v>-0.57215880810708175</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="1">
         <v>-0.60806724102672904</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="1">
         <v>-0.64341834105334972</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="1">
         <v>-0.678228547842608</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="1">
         <v>-0.71251369640221618</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="1">
         <v>-0.74628901707297057</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="1">
         <v>-0.77956918237391504</v>
       </c>
     </row>
@@ -1195,93 +1137,96 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="8.7109375" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1">
         <v>0.4</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>0.8</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>1.2</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="1">
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>6.7986997775525911E-17</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1.3597399555105182E-16</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>3.3993498887762956E-17</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1300,93 +1245,96 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="8.7109375" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1">
         <v>0.4</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>0.8</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>1.2</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="1">
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>6.7986997775525911E-17</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1.3597399555105182E-16</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>3.3993498887762956E-17</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1405,48 +1353,51 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="8.7109375" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0.69740719366499726</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1.1568003225019745</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
         <v>2.7591362546192006</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
         <v>2.3785237031173372</v>
       </c>
     </row>
@@ -1464,92 +1415,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="8.7109375" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1.1390375115164613</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
         <v>1.1651979266914683</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
         <v>1.2314115131035213</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>1.3472374603129511</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
         <v>8.557768521733114E-2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>0.39961091387211822</v>
       </c>
     </row>
@@ -1568,108 +1524,111 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="8.7109375" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" s="1">
+        <v>5.6205951121146291E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2">
-        <v>5.6205951121146291E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" s="1">
+        <v>2.1248299830536412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3">
-        <v>2.1248299830536412</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" s="1">
+        <v>1.2133358649639586E-33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4">
-        <v>1.2133358649639586E-33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" s="1">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>8.9376526217303694E-3</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>1.7875305243460739E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>5.5824917406711817E-3</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>1.1164983481342363E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
         <v>3.9542102024695807E-3</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>3.9542102024695807E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
         <v>0.27504444391037791</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>0.50658263183573171</v>
       </c>
     </row>
@@ -1685,126 +1644,97 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6"/>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7"/>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8"/>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9"/>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10"/>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11"/>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12"/>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13"/>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14"/>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15"/>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16"/>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17"/>
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18"/>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19"/>
-      <c r="B19"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20"/>
-      <c r="B20"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21"/>
-      <c r="B21"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22"/>
-      <c r="B22"/>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -1824,247 +1754,250 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.5703125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="10">
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6">
         <v>0.4</v>
       </c>
-      <c r="C1" s="11">
+      <c r="C1" s="6">
         <v>0.4</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D1" s="6">
         <v>0.4</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="6">
         <v>0.8</v>
       </c>
-      <c r="F1" s="14">
+      <c r="F1" s="6">
         <v>0.8</v>
       </c>
-      <c r="G1" s="15">
+      <c r="G1" s="6">
         <v>0.8</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="6">
         <v>1.2000000000000002</v>
       </c>
-      <c r="I1" s="17">
+      <c r="I1" s="6">
         <v>1.2000000000000002</v>
       </c>
-      <c r="J1" s="18">
+      <c r="J1" s="6">
         <v>1.2</v>
       </c>
-      <c r="K1" s="19">
+      <c r="K1" s="6">
         <v>1.6</v>
       </c>
-      <c r="L1" s="20">
+      <c r="L1" s="6">
         <v>1.6</v>
       </c>
-      <c r="M1" s="21">
+      <c r="M1" s="6">
         <v>1.6</v>
       </c>
-      <c r="N1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="6">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="6">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="6">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="6">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="6">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="6">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="6">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="6">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="6">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="6">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="6">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="M2" s="21">
+      <c r="M2" s="6">
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="6">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="6">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="6">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="6">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="6">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="6">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="6">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="6">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="6">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="6">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="6">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="6">
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="10">
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6">
         <v>0.26929382132237512</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="6">
         <v>0.26929382132237512</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="6">
         <v>0.26929382132237512</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="6">
         <v>0.41593537248224854</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="6">
         <v>0.41593537248224854</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="6">
         <v>0.41593537248224854</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="6">
         <v>0.49751163358969142</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="6">
         <v>0.49751163358969142</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="6">
         <v>0.49751163358969142</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="6">
         <v>0.54159993841241572</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="6">
         <v>0.54159993841241572</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="6">
         <v>0.54159993841241572</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="10">
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="6">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="6">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="6">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="6">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="6">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="6">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="6">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="6">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="6">
         <v>-1.1097262320569594</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="6">
         <v>-1.1097262320569594</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="6">
         <v>-1.1097262320569594</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F6" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I10" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F12" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H14" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="H18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="E20" s="2"/>
-      <c r="L20" s="2"/>
+    <row r="6" spans="1:14">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="I10" s="3"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="18" spans="3:12">
+      <c r="H18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="3:12">
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="3:12">
+      <c r="E20" s="3"/>
+      <c r="L20" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>
@@ -2081,267 +2014,270 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="8.7109375" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="9">
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6">
         <v>0.4</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C1" s="6">
         <v>0.4</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="6">
         <v>0.4</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E1" s="6">
         <v>0.8</v>
       </c>
-      <c r="F1" s="9">
+      <c r="F1" s="6">
         <v>0.8</v>
       </c>
-      <c r="G1" s="9">
+      <c r="G1" s="6">
         <v>0.8</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="6">
         <v>1.2000000000000002</v>
       </c>
-      <c r="I1" s="9">
+      <c r="I1" s="6">
         <v>1.2000000000000002</v>
       </c>
-      <c r="J1" s="9">
+      <c r="J1" s="6">
         <v>1.2</v>
       </c>
-      <c r="K1" s="9">
+      <c r="K1" s="6">
         <v>1.6</v>
       </c>
-      <c r="L1" s="9">
+      <c r="L1" s="6">
         <v>1.6</v>
       </c>
-      <c r="M1" s="9">
+      <c r="M1" s="6">
         <v>1.6</v>
       </c>
-      <c r="N1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="6">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="6">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="6">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="6">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="6">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="6">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="6">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="6">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="6">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="6">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="6">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="6">
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="6">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="6">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="6">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="6">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="6">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="6">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="6">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="6">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="6">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="6">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="6">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="6">
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="9">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0</v>
-      </c>
-      <c r="L4" s="9">
-        <v>0</v>
-      </c>
-      <c r="M4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="9">
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="6">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="6">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="6">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="6">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="6">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="6">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="6">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="6">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="6">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="6">
         <v>-0.40259011361710589</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K7" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="18" spans="6:13" x14ac:dyDescent="0.2">
-      <c r="F18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="6:13" x14ac:dyDescent="0.2">
-      <c r="H19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="6:13" x14ac:dyDescent="0.2">
-      <c r="H20" s="2"/>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="22" spans="6:13" x14ac:dyDescent="0.2">
-      <c r="K22" s="2"/>
-      <c r="M22" s="2"/>
+    <row r="6" spans="1:14">
+      <c r="B6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="K7" s="3"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="E11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="E13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="18" spans="6:13">
+      <c r="F18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="6:13">
+      <c r="H19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="6:13">
+      <c r="H20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="22" spans="6:13">
+      <c r="K22" s="3"/>
+      <c r="M22" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
   <extLst>
@@ -2358,110 +2294,110 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="37.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11" style="4"/>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="3" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2484,131 +2420,132 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="37.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:22">
+      <c r="A1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
-      <c r="K1"/>
-      <c r="L1"/>
-      <c r="M1"/>
-      <c r="N1"/>
-      <c r="O1"/>
-      <c r="P1"/>
-      <c r="Q1"/>
-      <c r="R1"/>
-      <c r="S1"/>
-      <c r="T1"/>
-      <c r="U1"/>
-      <c r="V1"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>
@@ -2622,225 +2559,215 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" activeCellId="3" sqref="F1 C1 D1 E1"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:22">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:22">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:22">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:22">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:22">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:22">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="8" spans="1:22">
+      <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B8" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="8">
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F16" s="1">
         <v>0.4</v>
       </c>
-      <c r="C14">
+      <c r="G16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="J16" s="1">
         <v>0.8</v>
       </c>
-      <c r="D14">
-        <v>1.2</v>
-      </c>
-      <c r="E14">
+      <c r="K16" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="R16" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="7">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0.1</v>
-      </c>
-      <c r="D17">
-        <v>0.2</v>
-      </c>
-      <c r="E17">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="F17">
-        <v>0.4</v>
-      </c>
-      <c r="G17">
-        <v>0.5</v>
-      </c>
-      <c r="H17">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="I17">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="J17">
-        <v>0.8</v>
-      </c>
-      <c r="K17">
-        <v>0.9</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N17">
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="O17">
-        <v>1.3</v>
-      </c>
-      <c r="P17">
-        <v>1.4000000000000001</v>
-      </c>
-      <c r="Q17">
-        <v>1.5</v>
-      </c>
-      <c r="R17">
-        <v>1.6</v>
-      </c>
-      <c r="S17">
+      <c r="S16" s="1">
         <v>1.7000000000000002</v>
       </c>
-      <c r="T17">
+      <c r="T16" s="1">
         <v>1.8</v>
       </c>
-      <c r="U17">
+      <c r="U16" s="1">
         <v>1.9000000000000001</v>
       </c>
-      <c r="V17">
+      <c r="V16" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2862,59 +2789,62 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="8.7109375" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -2929,348 +2859,351 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="8.7109375" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
+    <row r="1" spans="1:22">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
         <v>0.1</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>0.2</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="1">
         <v>0.3</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="1">
         <v>0.4</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="1">
         <v>0.5</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="1">
         <v>0.6</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="1">
         <v>0.7</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="1">
         <v>0.8</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="1">
         <v>0.9</v>
       </c>
-      <c r="L1">
-        <v>1</v>
-      </c>
-      <c r="M1">
+      <c r="L1" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="1">
         <v>1.2</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="1">
         <v>1.3</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="1">
         <v>1.4</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" s="1">
         <v>1.5</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="1">
         <v>1.6</v>
       </c>
-      <c r="S1">
+      <c r="S1" s="1">
         <v>1.7</v>
       </c>
-      <c r="T1">
+      <c r="T1" s="1">
         <v>1.8</v>
       </c>
-      <c r="U1">
+      <c r="U1" s="1">
         <v>1.9</v>
       </c>
-      <c r="V1">
+      <c r="V1" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:22">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
         <v>-8.9800321449215181E-2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>-0.17783723566962159</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>-0.26414317546565297</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>-0.34875359461636379</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>-0.43170548228292405</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>-0.51303803932179959</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>-0.59279132706349291</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>-0.67100682676036338</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>-0.74772630271945129</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>-0.82299227598659463</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="1">
         <v>-0.89684708166550642</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="1">
         <v>-0.9693332787484078</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="1">
         <v>-1.0404928780646217</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="1">
         <v>-1.1103677031390775</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="1">
         <v>-1.1789987643329474</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="1">
         <v>-1.2464265806106019</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="1">
         <v>-1.3126906763676192</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="1">
         <v>-1.377829870641254</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="1">
         <v>-1.4418818751815392</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="1">
         <v>-1.5048835406461176</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:22">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
         <v>-5.3554472545191481E-2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>-0.10534033101746187</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>-0.15541295136192257</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>-0.2038273200147003</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>-0.25063751475470381</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>-0.29589686364454737</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>-0.33965752021893808</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>-0.38197061557552464</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>-0.42288593483478537</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <v>-0.46245206329717115</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="1">
         <v>-0.5007161439761052</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="1">
         <v>-0.53772401759212052</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="1">
         <v>-0.57352004400459444</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="1">
         <v>-0.60814723537794035</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="1">
         <v>-0.64164712729223439</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="1">
         <v>-0.6740599043814397</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="1">
         <v>-0.70542430959397973</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="1">
         <v>-0.73577776176435217</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="1">
         <v>-0.76515629383282446</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="1">
         <v>-0.79359465825360598</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
+    <row r="4" spans="1:22">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
         <v>7.4345920314281444E-2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0.1387862873421718</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>0.19504398075803131</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>0.24445619535924734</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>0.28808099282175181</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>0.3267702767439874</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>0.36121939459262042</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>0.39200333574599211</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>0.41960228361880236</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>0.44442125188544235</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="1">
         <v>0.46680430214292035</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="1">
         <v>0.48704596892456742</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="1">
         <v>0.50539967340460468</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="1">
         <v>0.5220847587784978</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="1">
         <v>0.53729173165300481</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="1">
         <v>0.55118680460021641</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="1">
         <v>0.56391531043720267</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="1">
         <v>0.57560475729047178</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="1">
         <v>0.58636714421203395</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="1">
         <v>0.5963010868083789</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
+    <row r="5" spans="1:22">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
         <v>-5.8604556661095743E-2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>-0.11678083924349103</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>-0.17448802461226795</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>-0.23168628341320835</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>-0.28833618327924054</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>-0.34439836996876116</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>-0.39983318516774291</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>-0.45460058100867851</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>-0.50865989173411208</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>-0.56196992615853658</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="1">
         <v>-0.61448886482108267</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <v>-0.66617449926014538</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="1">
         <v>-0.71698423762054075</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="1">
         <v>-0.76687546770195336</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="1">
         <v>-0.81580565499870039</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="1">
         <v>-0.86373280603844371</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="1">
         <v>-0.91061563837583892</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="1">
         <v>-0.9564141159027354</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="1">
         <v>-1.0010896635263178</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="1">
         <v>-1.0446057291203115</v>
       </c>
     </row>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_graph_output.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15280" tabRatio="644" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="13" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="41">
   <si>
     <t>CIN5</t>
   </si>
@@ -77,6 +77,9 @@
     <t>Strain</t>
   </si>
   <si>
+    <t>Deletion</t>
+  </si>
+  <si>
     <t>wt</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
     <t>fix_b</t>
   </si>
   <si>
+    <t>Sheet</t>
+  </si>
+  <si>
     <t>dcin5</t>
   </si>
   <si>
@@ -153,19 +159,21 @@
   </si>
   <si>
     <t>dcin5 MSE</t>
-  </si>
-  <si>
-    <t>cols regulators/rows targets</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -198,17 +206,6 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -229,19 +226,34 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -322,9 +334,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -652,112 +661,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="2"/>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="D24" s="2"/>
+      <c r="D4" s="5"/>
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6"/>
+      <c r="B6" s="4"/>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7"/>
+      <c r="B7" s="4"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8"/>
+      <c r="B8" s="4"/>
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9"/>
+      <c r="B9" s="4"/>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10"/>
+      <c r="B10" s="4"/>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11"/>
+      <c r="B11" s="4"/>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12"/>
+      <c r="B12" s="4"/>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13"/>
+      <c r="B13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14"/>
+      <c r="B14" s="4"/>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15"/>
+      <c r="B15" s="4"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16"/>
+      <c r="B16" s="4"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17"/>
+      <c r="B17" s="4"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18"/>
+      <c r="B18" s="4"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19"/>
+      <c r="B19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20"/>
+      <c r="B20" s="4"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="G22"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D24" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter alignWithMargins="0"/>
@@ -774,351 +830,348 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
         <v>0.1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1">
         <v>0.2</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1">
         <v>0.3</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1">
         <v>0.4</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1">
         <v>0.5</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1">
         <v>0.6</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1">
         <v>0.7</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1">
         <v>0.8</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1">
         <v>0.9</v>
       </c>
-      <c r="L1" s="1">
-        <v>1</v>
-      </c>
-      <c r="M1" s="1">
+      <c r="L1">
+        <v>1</v>
+      </c>
+      <c r="M1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1">
         <v>1.2</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1">
         <v>1.3</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1">
         <v>1.4</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1">
         <v>1.5</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1">
         <v>1.6</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1">
         <v>1.7</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1">
         <v>1.8</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1">
         <v>1.9</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>-8.9800321449215181E-2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>-0.17783723566962159</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>-0.26414317546565297</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
         <v>-0.34875359461636379</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2">
         <v>-0.43170548228292405</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
         <v>-0.51303803932179959</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2">
         <v>-0.59279132706349291</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2">
         <v>-0.67100682676036338</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2">
         <v>-0.74772630271945129</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2">
         <v>-0.82299227598659463</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2">
         <v>-0.89684708166550642</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2">
         <v>-0.9693332787484078</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2">
         <v>-1.0404928780646217</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2">
         <v>-1.1103677031390775</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2">
         <v>-1.1789987643329474</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2">
         <v>-1.2464265806106019</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2">
         <v>-1.3126906763676192</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2">
         <v>-1.377829870641254</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U2">
         <v>-1.4418818751815392</v>
       </c>
-      <c r="V2" s="1">
+      <c r="V2">
         <v>-1.5048835406461176</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>-5.3554472545191481E-2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>-0.10534033101746187</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>-0.15541295136192257</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>-0.2038273200147003</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>-0.25063751475470381</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <v>-0.29589686364454737</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>-0.33965752021893808</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3">
         <v>-0.38197061557552464</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3">
         <v>-0.42288593483478537</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3">
         <v>-0.46245206329717115</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3">
         <v>-0.5007161439761052</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3">
         <v>-0.53772401759212052</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3">
         <v>-0.57352004400459444</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3">
         <v>-0.60814723537794035</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3">
         <v>-0.64164712729223439</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3">
         <v>-0.6740599043814397</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3">
         <v>-0.70542430959397973</v>
       </c>
-      <c r="T3" s="1">
+      <c r="T3">
         <v>-0.73577776176435217</v>
       </c>
-      <c r="U3" s="1">
+      <c r="U3">
         <v>-0.76515629383282446</v>
       </c>
-      <c r="V3" s="1">
+      <c r="V3">
         <v>-0.79359465825360598</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1">
-        <v>0</v>
-      </c>
-      <c r="S4" s="1">
-        <v>0</v>
-      </c>
-      <c r="T4" s="1">
-        <v>0</v>
-      </c>
-      <c r="U4" s="1">
-        <v>0</v>
-      </c>
-      <c r="V4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>-4.5851325928348091E-2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>-9.0834146060417342E-2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>-0.13497660518656263</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>-0.17830584843860664</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>-0.22084797637772191</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <v>-0.2626281490883578</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>-0.30367054964856338</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <v>-0.34399847763154839</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5">
         <v>-0.38363432380541679</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5">
         <v>-0.42259965397966681</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5">
         <v>-0.46091519214766763</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5">
         <v>-0.49860089557940129</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5">
         <v>-0.53567594426493337</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5">
         <v>-0.57215880810708175</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5">
         <v>-0.60806724102672904</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5">
         <v>-0.64341834105334972</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5">
         <v>-0.678228547842608</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5">
         <v>-0.71251369640221618</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5">
         <v>-0.74628901707297057</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5">
         <v>-0.77956918237391504</v>
       </c>
     </row>
@@ -1137,96 +1190,93 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1">
         <v>0.4</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1">
         <v>0.8</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1">
         <v>1.2</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1">
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>6.7986997775525911E-17</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>1.3597399555105182E-16</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>3.3993498887762956E-17</v>
       </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>0</v>
       </c>
     </row>
@@ -1245,96 +1295,93 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1">
         <v>0.4</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1">
         <v>0.8</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1">
         <v>1.2</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1">
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>6.7986997775525911E-17</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>1.3597399555105182E-16</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>3.3993498887762956E-17</v>
       </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>0</v>
       </c>
     </row>
@@ -1353,51 +1400,48 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>0.69740719366499726</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>1.1568003225019745</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>2.7591362546192006</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
         <v>2.3785237031173372</v>
       </c>
     </row>
@@ -1415,97 +1459,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>1.1390375115164613</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>1.1651979266914683</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>1.2314115131035213</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>1.3472374603129511</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>8.557768521733114E-2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>0.39961091387211822</v>
       </c>
     </row>
@@ -1523,112 +1562,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
         <v>5.6205951121146291E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
         <v>2.1248299830536412</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="1">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
         <v>1.2133358649639586E-33</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
         <v>1012</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>8.9376526217303694E-3</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>1.7875305243460739E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>5.5824917406711817E-3</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>1.1164983481342363E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
         <v>3.9542102024695807E-3</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>3.9542102024695807E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
         <v>0.27504444391037791</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>0.50658263183573171</v>
       </c>
     </row>
@@ -1644,97 +1680,126 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="2"/>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6"/>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7"/>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8"/>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9"/>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10"/>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11"/>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12"/>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13"/>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14"/>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15"/>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16"/>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17"/>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18"/>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19"/>
+      <c r="B19"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20"/>
+      <c r="B20"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21"/>
+      <c r="B21"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22"/>
+      <c r="B22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -1754,250 +1819,247 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="10.5703125" style="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="6">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="10">
         <v>0.4</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="11">
         <v>0.4</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="12">
         <v>0.4</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1" s="13">
         <v>0.8</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="14">
         <v>0.8</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="15">
         <v>0.8</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="16">
         <v>1.2000000000000002</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="17">
         <v>1.2000000000000002</v>
       </c>
-      <c r="J1" s="6">
+      <c r="J1" s="18">
         <v>1.2</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K1" s="19">
         <v>1.6</v>
       </c>
-      <c r="L1" s="6">
+      <c r="L1" s="20">
         <v>1.6</v>
       </c>
-      <c r="M1" s="6">
+      <c r="M1" s="21">
         <v>1.6</v>
       </c>
-      <c r="N1" s="5"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1" t="s">
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="10">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="11">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="12">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="13">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="14">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="15">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="16">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="17">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="18">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="19">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="20">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="21">
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="10">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="11">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="12">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="13">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="14">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="15">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="16">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="17">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="18">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="19">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="20">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="21">
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6">
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10">
         <v>0.26929382132237512</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="11">
         <v>0.26929382132237512</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="12">
         <v>0.26929382132237512</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="13">
         <v>0.41593537248224854</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="14">
         <v>0.41593537248224854</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="15">
         <v>0.41593537248224854</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="16">
         <v>0.49751163358969142</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="17">
         <v>0.49751163358969142</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="18">
         <v>0.49751163358969142</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="19">
         <v>0.54159993841241572</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="20">
         <v>0.54159993841241572</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="21">
         <v>0.54159993841241572</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6">
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="11">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="12">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="13">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="14">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="15">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="16">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="17">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="18">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="19">
         <v>-1.1097262320569594</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="20">
         <v>-1.1097262320569594</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="21">
         <v>-1.1097262320569594</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="F6" s="3"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="I10" s="3"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="F12" s="3"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="H14" s="3"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="B16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="18" spans="3:12">
-      <c r="H18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:12">
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="3:12">
-      <c r="E20" s="3"/>
-      <c r="L20" s="3"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="H18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E20" s="2"/>
+      <c r="L20" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>
@@ -2014,270 +2076,267 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="6">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="9">
         <v>0.4</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="9">
         <v>0.4</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="9">
         <v>0.4</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1" s="9">
         <v>0.8</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="9">
         <v>0.8</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="9">
         <v>0.8</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="9">
         <v>1.2000000000000002</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="9">
         <v>1.2000000000000002</v>
       </c>
-      <c r="J1" s="6">
+      <c r="J1" s="9">
         <v>1.2</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K1" s="9">
         <v>1.6</v>
       </c>
-      <c r="L1" s="6">
+      <c r="L1" s="9">
         <v>1.6</v>
       </c>
-      <c r="M1" s="6">
+      <c r="M1" s="9">
         <v>1.6</v>
       </c>
-      <c r="N1" s="5"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1" t="s">
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="9">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="9">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="9">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="9">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="9">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="9">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="9">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="9">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="9">
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="9">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="9">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="9">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="9">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="9">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="9">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="9">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="9">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="9">
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6">
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="9">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="9">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="9">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="9">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="9">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="9">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="9">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="9">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="9">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="9">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="9">
         <v>-0.40259011361710589</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="B6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="K7" s="3"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="E11" s="3"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="E13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="B15" s="3"/>
-    </row>
-    <row r="18" spans="6:13">
-      <c r="F18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="6:13">
-      <c r="H19" s="3"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="6:13">
-      <c r="H20" s="3"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="22" spans="6:13">
-      <c r="K22" s="3"/>
-      <c r="M22" s="3"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="18" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="F18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="H19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="H20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="22" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="K22" s="2"/>
+      <c r="M22" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
   <extLst>
@@ -2294,110 +2353,110 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
-    <col min="2" max="3" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11" style="2"/>
+    <col min="1" max="1" width="37.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2420,132 +2479,131 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="37.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="1" t="s">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>
@@ -2559,215 +2617,248 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="1" t="s">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="1" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
-      <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="1" t="s">
+      <c r="B14" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="C14">
+        <v>0.8</v>
+      </c>
+      <c r="D14">
+        <v>1.2</v>
+      </c>
+      <c r="E14">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="4">
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="7">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.1</v>
+      </c>
+      <c r="D18">
+        <v>0.2</v>
+      </c>
+      <c r="E18">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F18">
         <v>0.4</v>
       </c>
-      <c r="C14" s="1">
+      <c r="G18">
+        <v>0.5</v>
+      </c>
+      <c r="H18">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="I18">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="J18">
         <v>0.8</v>
       </c>
-      <c r="D14" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="K18">
+        <v>0.9</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N18">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="O18">
+        <v>1.3</v>
+      </c>
+      <c r="P18">
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="Q18">
+        <v>1.5</v>
+      </c>
+      <c r="R18">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="L16" s="1">
-        <v>1</v>
-      </c>
-      <c r="M16" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N16" s="1">
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="O16" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="P16" s="1">
-        <v>1.4000000000000001</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="R16" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="S16" s="1">
+      <c r="S18">
         <v>1.7000000000000002</v>
       </c>
-      <c r="T16" s="1">
+      <c r="T18">
         <v>1.8</v>
       </c>
-      <c r="U16" s="1">
+      <c r="U18">
         <v>1.9000000000000001</v>
       </c>
-      <c r="V16" s="1">
+      <c r="V18">
         <v>2</v>
       </c>
     </row>
@@ -2789,62 +2880,59 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="3"/>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -2859,351 +2947,348 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
         <v>0.1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1">
         <v>0.2</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1">
         <v>0.3</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1">
         <v>0.4</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1">
         <v>0.5</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1">
         <v>0.6</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1">
         <v>0.7</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1">
         <v>0.8</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1">
         <v>0.9</v>
       </c>
-      <c r="L1" s="1">
-        <v>1</v>
-      </c>
-      <c r="M1" s="1">
+      <c r="L1">
+        <v>1</v>
+      </c>
+      <c r="M1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1">
         <v>1.2</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1">
         <v>1.3</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1">
         <v>1.4</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1">
         <v>1.5</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1">
         <v>1.6</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1">
         <v>1.7</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1">
         <v>1.8</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1">
         <v>1.9</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>-8.9800321449215181E-2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>-0.17783723566962159</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>-0.26414317546565297</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
         <v>-0.34875359461636379</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2">
         <v>-0.43170548228292405</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
         <v>-0.51303803932179959</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2">
         <v>-0.59279132706349291</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2">
         <v>-0.67100682676036338</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2">
         <v>-0.74772630271945129</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2">
         <v>-0.82299227598659463</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2">
         <v>-0.89684708166550642</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2">
         <v>-0.9693332787484078</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2">
         <v>-1.0404928780646217</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2">
         <v>-1.1103677031390775</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2">
         <v>-1.1789987643329474</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2">
         <v>-1.2464265806106019</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2">
         <v>-1.3126906763676192</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2">
         <v>-1.377829870641254</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U2">
         <v>-1.4418818751815392</v>
       </c>
-      <c r="V2" s="1">
+      <c r="V2">
         <v>-1.5048835406461176</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>-5.3554472545191481E-2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>-0.10534033101746187</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>-0.15541295136192257</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>-0.2038273200147003</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>-0.25063751475470381</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <v>-0.29589686364454737</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>-0.33965752021893808</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3">
         <v>-0.38197061557552464</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3">
         <v>-0.42288593483478537</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3">
         <v>-0.46245206329717115</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3">
         <v>-0.5007161439761052</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3">
         <v>-0.53772401759212052</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3">
         <v>-0.57352004400459444</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3">
         <v>-0.60814723537794035</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3">
         <v>-0.64164712729223439</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3">
         <v>-0.6740599043814397</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3">
         <v>-0.70542430959397973</v>
       </c>
-      <c r="T3" s="1">
+      <c r="T3">
         <v>-0.73577776176435217</v>
       </c>
-      <c r="U3" s="1">
+      <c r="U3">
         <v>-0.76515629383282446</v>
       </c>
-      <c r="V3" s="1">
+      <c r="V3">
         <v>-0.79359465825360598</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>7.4345920314281444E-2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>0.1387862873421718</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>0.19504398075803131</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>0.24445619535924734</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>0.28808099282175181</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <v>0.3267702767439874</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>0.36121939459262042</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <v>0.39200333574599211</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4">
         <v>0.41960228361880236</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4">
         <v>0.44442125188544235</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4">
         <v>0.46680430214292035</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4">
         <v>0.48704596892456742</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4">
         <v>0.50539967340460468</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4">
         <v>0.5220847587784978</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4">
         <v>0.53729173165300481</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4">
         <v>0.55118680460021641</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4">
         <v>0.56391531043720267</v>
       </c>
-      <c r="T4" s="1">
+      <c r="T4">
         <v>0.57560475729047178</v>
       </c>
-      <c r="U4" s="1">
+      <c r="U4">
         <v>0.58636714421203395</v>
       </c>
-      <c r="V4" s="1">
+      <c r="V4">
         <v>0.5963010868083789</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>-5.8604556661095743E-2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>-0.11678083924349103</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>-0.17448802461226795</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>-0.23168628341320835</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>-0.28833618327924054</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <v>-0.34439836996876116</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>-0.39983318516774291</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <v>-0.45460058100867851</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5">
         <v>-0.50865989173411208</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5">
         <v>-0.56196992615853658</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5">
         <v>-0.61448886482108267</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5">
         <v>-0.66617449926014538</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5">
         <v>-0.71698423762054075</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5">
         <v>-0.76687546770195336</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5">
         <v>-0.81580565499870039</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5">
         <v>-0.86373280603844371</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5">
         <v>-0.91061563837583892</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5">
         <v>-0.9564141159027354</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5">
         <v>-1.0010896635263178</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5">
         <v>-1.0446057291203115</v>
       </c>
     </row>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_graph_output.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="13" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15280" tabRatio="644" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="40">
   <si>
     <t>CIN5</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Strain</t>
   </si>
   <si>
-    <t>Deletion</t>
-  </si>
-  <si>
     <t>wt</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>fix_b</t>
   </si>
   <si>
-    <t>Sheet</t>
-  </si>
-  <si>
     <t>dcin5</t>
   </si>
   <si>
@@ -159,21 +153,19 @@
   </si>
   <si>
     <t>dcin5 MSE</t>
+  </si>
+  <si>
+    <t>cols regulators/rows targets</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -206,6 +198,17 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -226,34 +229,19 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -334,6 +322,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -661,159 +652,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0.5</v>
       </c>
-      <c r="G2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="G3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="G4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="G5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6"/>
-      <c r="B6" s="4"/>
-      <c r="G6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7"/>
-      <c r="B7" s="4"/>
-      <c r="G7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8"/>
-      <c r="B8" s="4"/>
-      <c r="G8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9"/>
-      <c r="B9" s="4"/>
-      <c r="G9"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10"/>
-      <c r="B10" s="4"/>
-      <c r="G10"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11"/>
-      <c r="B11" s="4"/>
-      <c r="G11"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12"/>
-      <c r="B12" s="4"/>
-      <c r="G12"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13"/>
-      <c r="B13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="G13"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14"/>
-      <c r="B14" s="4"/>
-      <c r="G14"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15"/>
-      <c r="B15" s="4"/>
-      <c r="G15"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16"/>
-      <c r="B16" s="4"/>
-      <c r="G16"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17"/>
-      <c r="B17" s="4"/>
-      <c r="G17"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18"/>
-      <c r="B18" s="4"/>
-      <c r="G18"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19"/>
-      <c r="B19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="G19"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20"/>
-      <c r="B20" s="4"/>
-      <c r="G20"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="G21"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="G22"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D24" s="5"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="D24" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter alignWithMargins="0"/>
@@ -830,348 +774,351 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="8.7109375" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
+    <row r="1" spans="1:22">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
         <v>0.1</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>0.2</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="1">
         <v>0.3</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="1">
         <v>0.4</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="1">
         <v>0.5</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="1">
         <v>0.6</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="1">
         <v>0.7</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="1">
         <v>0.8</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="1">
         <v>0.9</v>
       </c>
-      <c r="L1">
-        <v>1</v>
-      </c>
-      <c r="M1">
+      <c r="L1" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="1">
         <v>1.2</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="1">
         <v>1.3</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="1">
         <v>1.4</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" s="1">
         <v>1.5</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="1">
         <v>1.6</v>
       </c>
-      <c r="S1">
+      <c r="S1" s="1">
         <v>1.7</v>
       </c>
-      <c r="T1">
+      <c r="T1" s="1">
         <v>1.8</v>
       </c>
-      <c r="U1">
+      <c r="U1" s="1">
         <v>1.9</v>
       </c>
-      <c r="V1">
+      <c r="V1" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:22">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
         <v>-8.9800321449215181E-2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>-0.17783723566962159</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>-0.26414317546565297</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>-0.34875359461636379</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>-0.43170548228292405</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>-0.51303803932179959</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>-0.59279132706349291</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>-0.67100682676036338</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>-0.74772630271945129</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>-0.82299227598659463</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="1">
         <v>-0.89684708166550642</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="1">
         <v>-0.9693332787484078</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="1">
         <v>-1.0404928780646217</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="1">
         <v>-1.1103677031390775</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="1">
         <v>-1.1789987643329474</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="1">
         <v>-1.2464265806106019</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="1">
         <v>-1.3126906763676192</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="1">
         <v>-1.377829870641254</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="1">
         <v>-1.4418818751815392</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="1">
         <v>-1.5048835406461176</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:22">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
         <v>-5.3554472545191481E-2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>-0.10534033101746187</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>-0.15541295136192257</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>-0.2038273200147003</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>-0.25063751475470381</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>-0.29589686364454737</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>-0.33965752021893808</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>-0.38197061557552464</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>-0.42288593483478537</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <v>-0.46245206329717115</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="1">
         <v>-0.5007161439761052</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="1">
         <v>-0.53772401759212052</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="1">
         <v>-0.57352004400459444</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="1">
         <v>-0.60814723537794035</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="1">
         <v>-0.64164712729223439</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="1">
         <v>-0.6740599043814397</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="1">
         <v>-0.70542430959397973</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="1">
         <v>-0.73577776176435217</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="1">
         <v>-0.76515629383282446</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="1">
         <v>-0.79359465825360598</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
+    <row r="4" spans="1:22">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
         <v>-4.5851325928348091E-2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>-9.0834146060417342E-2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>-0.13497660518656263</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>-0.17830584843860664</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>-0.22084797637772191</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>-0.2626281490883578</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>-0.30367054964856338</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>-0.34399847763154839</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>-0.38363432380541679</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>-0.42259965397966681</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="1">
         <v>-0.46091519214766763</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <v>-0.49860089557940129</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="1">
         <v>-0.53567594426493337</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="1">
         <v>-0.57215880810708175</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="1">
         <v>-0.60806724102672904</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="1">
         <v>-0.64341834105334972</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="1">
         <v>-0.678228547842608</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="1">
         <v>-0.71251369640221618</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="1">
         <v>-0.74628901707297057</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="1">
         <v>-0.77956918237391504</v>
       </c>
     </row>
@@ -1190,93 +1137,96 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="8.7109375" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1">
         <v>0.4</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>0.8</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>1.2</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="1">
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>6.7986997775525911E-17</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1.3597399555105182E-16</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>3.3993498887762956E-17</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1295,93 +1245,96 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="8.7109375" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1">
         <v>0.4</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>0.8</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>1.2</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="1">
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>6.7986997775525911E-17</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1.3597399555105182E-16</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>3.3993498887762956E-17</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1400,48 +1353,51 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="8.7109375" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0.69740719366499726</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1.1568003225019745</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
         <v>2.7591362546192006</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
         <v>2.3785237031173372</v>
       </c>
     </row>
@@ -1459,92 +1415,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="8.7109375" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1.1390375115164613</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
         <v>1.1651979266914683</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
         <v>1.2314115131035213</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>1.3472374603129511</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
         <v>8.557768521733114E-2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>0.39961091387211822</v>
       </c>
     </row>
@@ -1562,109 +1523,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="8.7109375" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="1">
+        <v>5.6205951121146291E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B3" s="1">
+        <v>2.1248299830536412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2">
-        <v>5.6205951121146291E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B4" s="1">
+        <v>1.2133358649639586E-33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3">
-        <v>2.1248299830536412</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B5" s="1">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4">
-        <v>1.2133358649639586E-33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>8.9376526217303694E-3</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>1.7875305243460739E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>5.5824917406711817E-3</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>1.1164983481342363E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
         <v>3.9542102024695807E-3</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>3.9542102024695807E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
         <v>0.27504444391037791</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>0.50658263183573171</v>
       </c>
     </row>
@@ -1680,126 +1644,97 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6"/>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7"/>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8"/>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9"/>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10"/>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11"/>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12"/>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13"/>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14"/>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15"/>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16"/>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17"/>
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18"/>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19"/>
-      <c r="B19"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20"/>
-      <c r="B20"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21"/>
-      <c r="B21"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22"/>
-      <c r="B22"/>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -1819,247 +1754,250 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.5703125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="10">
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6">
         <v>0.4</v>
       </c>
-      <c r="C1" s="11">
+      <c r="C1" s="6">
         <v>0.4</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D1" s="6">
         <v>0.4</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="6">
         <v>0.8</v>
       </c>
-      <c r="F1" s="14">
+      <c r="F1" s="6">
         <v>0.8</v>
       </c>
-      <c r="G1" s="15">
+      <c r="G1" s="6">
         <v>0.8</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="6">
         <v>1.2000000000000002</v>
       </c>
-      <c r="I1" s="17">
+      <c r="I1" s="6">
         <v>1.2000000000000002</v>
       </c>
-      <c r="J1" s="18">
+      <c r="J1" s="6">
         <v>1.2</v>
       </c>
-      <c r="K1" s="19">
+      <c r="K1" s="6">
         <v>1.6</v>
       </c>
-      <c r="L1" s="20">
+      <c r="L1" s="6">
         <v>1.6</v>
       </c>
-      <c r="M1" s="21">
+      <c r="M1" s="6">
         <v>1.6</v>
       </c>
-      <c r="N1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="6">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="6">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="6">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="6">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="6">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="6">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="6">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="6">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="6">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="6">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="6">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="M2" s="21">
+      <c r="M2" s="6">
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="6">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="6">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="6">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="6">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="6">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="6">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="6">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="6">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="6">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="6">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="6">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="6">
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="10">
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6">
         <v>0.26929382132237512</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="6">
         <v>0.26929382132237512</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="6">
         <v>0.26929382132237512</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="6">
         <v>0.41593537248224854</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="6">
         <v>0.41593537248224854</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="6">
         <v>0.41593537248224854</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="6">
         <v>0.49751163358969142</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="6">
         <v>0.49751163358969142</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="6">
         <v>0.49751163358969142</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="6">
         <v>0.54159993841241572</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="6">
         <v>0.54159993841241572</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="6">
         <v>0.54159993841241572</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="10">
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="6">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="6">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="6">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="6">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="6">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="6">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="6">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="6">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="6">
         <v>-1.1097262320569594</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="6">
         <v>-1.1097262320569594</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="6">
         <v>-1.1097262320569594</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F6" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I10" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F12" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H14" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="H18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="E20" s="2"/>
-      <c r="L20" s="2"/>
+    <row r="6" spans="1:14">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="I10" s="3"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="18" spans="3:12">
+      <c r="H18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="3:12">
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="3:12">
+      <c r="E20" s="3"/>
+      <c r="L20" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>
@@ -2076,267 +2014,270 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="8.7109375" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="9">
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6">
         <v>0.4</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C1" s="6">
         <v>0.4</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="6">
         <v>0.4</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E1" s="6">
         <v>0.8</v>
       </c>
-      <c r="F1" s="9">
+      <c r="F1" s="6">
         <v>0.8</v>
       </c>
-      <c r="G1" s="9">
+      <c r="G1" s="6">
         <v>0.8</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="6">
         <v>1.2000000000000002</v>
       </c>
-      <c r="I1" s="9">
+      <c r="I1" s="6">
         <v>1.2000000000000002</v>
       </c>
-      <c r="J1" s="9">
+      <c r="J1" s="6">
         <v>1.2</v>
       </c>
-      <c r="K1" s="9">
+      <c r="K1" s="6">
         <v>1.6</v>
       </c>
-      <c r="L1" s="9">
+      <c r="L1" s="6">
         <v>1.6</v>
       </c>
-      <c r="M1" s="9">
+      <c r="M1" s="6">
         <v>1.6</v>
       </c>
-      <c r="N1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="6">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="6">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="6">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="6">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="6">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="6">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="6">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="6">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="6">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="6">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="6">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="6">
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="6">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="6">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="6">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="6">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="6">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="6">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="6">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="6">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="6">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="6">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="6">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="6">
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="9">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0</v>
-      </c>
-      <c r="L4" s="9">
-        <v>0</v>
-      </c>
-      <c r="M4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="9">
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="6">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="6">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="6">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="6">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="6">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="6">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="6">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="6">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="6">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="6">
         <v>-0.40259011361710589</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K7" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="18" spans="6:13" x14ac:dyDescent="0.2">
-      <c r="F18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="6:13" x14ac:dyDescent="0.2">
-      <c r="H19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="6:13" x14ac:dyDescent="0.2">
-      <c r="H20" s="2"/>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="22" spans="6:13" x14ac:dyDescent="0.2">
-      <c r="K22" s="2"/>
-      <c r="M22" s="2"/>
+    <row r="6" spans="1:14">
+      <c r="B6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="K7" s="3"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="E11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="E13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="18" spans="6:13">
+      <c r="F18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="6:13">
+      <c r="H19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="6:13">
+      <c r="H20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="22" spans="6:13">
+      <c r="K22" s="3"/>
+      <c r="M22" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
   <extLst>
@@ -2353,110 +2294,110 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="37.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11" style="4"/>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="3" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2479,131 +2420,132 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="37.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:22">
+      <c r="A1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
-      <c r="K1"/>
-      <c r="L1"/>
-      <c r="M1"/>
-      <c r="N1"/>
-      <c r="O1"/>
-      <c r="P1"/>
-      <c r="Q1"/>
-      <c r="R1"/>
-      <c r="S1"/>
-      <c r="T1"/>
-      <c r="U1"/>
-      <c r="V1"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>
@@ -2617,248 +2559,215 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:22">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:22">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:22">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:22">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:22">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="8" t="s">
+    <row r="8" spans="1:22">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B14" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="8">
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F16" s="1">
         <v>0.4</v>
       </c>
-      <c r="C14">
+      <c r="G16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="J16" s="1">
         <v>0.8</v>
       </c>
-      <c r="D14">
-        <v>1.2</v>
-      </c>
-      <c r="E14">
+      <c r="K16" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="R16" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="7">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0.1</v>
-      </c>
-      <c r="D18">
-        <v>0.2</v>
-      </c>
-      <c r="E18">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="F18">
-        <v>0.4</v>
-      </c>
-      <c r="G18">
-        <v>0.5</v>
-      </c>
-      <c r="H18">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="I18">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="J18">
-        <v>0.8</v>
-      </c>
-      <c r="K18">
-        <v>0.9</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N18">
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="O18">
-        <v>1.3</v>
-      </c>
-      <c r="P18">
-        <v>1.4000000000000001</v>
-      </c>
-      <c r="Q18">
-        <v>1.5</v>
-      </c>
-      <c r="R18">
-        <v>1.6</v>
-      </c>
-      <c r="S18">
+      <c r="S16" s="1">
         <v>1.7000000000000002</v>
       </c>
-      <c r="T18">
+      <c r="T16" s="1">
         <v>1.8</v>
       </c>
-      <c r="U18">
+      <c r="U16" s="1">
         <v>1.9000000000000001</v>
       </c>
-      <c r="V18">
+      <c r="V16" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2880,59 +2789,62 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="8.7109375" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -2947,348 +2859,351 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="8.7109375" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
+    <row r="1" spans="1:22">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
         <v>0.1</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>0.2</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="1">
         <v>0.3</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="1">
         <v>0.4</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="1">
         <v>0.5</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="1">
         <v>0.6</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="1">
         <v>0.7</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="1">
         <v>0.8</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="1">
         <v>0.9</v>
       </c>
-      <c r="L1">
-        <v>1</v>
-      </c>
-      <c r="M1">
+      <c r="L1" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="1">
         <v>1.2</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="1">
         <v>1.3</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="1">
         <v>1.4</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" s="1">
         <v>1.5</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="1">
         <v>1.6</v>
       </c>
-      <c r="S1">
+      <c r="S1" s="1">
         <v>1.7</v>
       </c>
-      <c r="T1">
+      <c r="T1" s="1">
         <v>1.8</v>
       </c>
-      <c r="U1">
+      <c r="U1" s="1">
         <v>1.9</v>
       </c>
-      <c r="V1">
+      <c r="V1" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:22">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
         <v>-8.9800321449215181E-2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>-0.17783723566962159</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>-0.26414317546565297</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>-0.34875359461636379</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>-0.43170548228292405</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>-0.51303803932179959</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>-0.59279132706349291</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>-0.67100682676036338</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>-0.74772630271945129</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>-0.82299227598659463</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="1">
         <v>-0.89684708166550642</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="1">
         <v>-0.9693332787484078</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="1">
         <v>-1.0404928780646217</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="1">
         <v>-1.1103677031390775</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="1">
         <v>-1.1789987643329474</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="1">
         <v>-1.2464265806106019</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="1">
         <v>-1.3126906763676192</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="1">
         <v>-1.377829870641254</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="1">
         <v>-1.4418818751815392</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="1">
         <v>-1.5048835406461176</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:22">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
         <v>-5.3554472545191481E-2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>-0.10534033101746187</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>-0.15541295136192257</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>-0.2038273200147003</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>-0.25063751475470381</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>-0.29589686364454737</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>-0.33965752021893808</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>-0.38197061557552464</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>-0.42288593483478537</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <v>-0.46245206329717115</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="1">
         <v>-0.5007161439761052</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="1">
         <v>-0.53772401759212052</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="1">
         <v>-0.57352004400459444</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="1">
         <v>-0.60814723537794035</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="1">
         <v>-0.64164712729223439</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="1">
         <v>-0.6740599043814397</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="1">
         <v>-0.70542430959397973</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="1">
         <v>-0.73577776176435217</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="1">
         <v>-0.76515629383282446</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="1">
         <v>-0.79359465825360598</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
+    <row r="4" spans="1:22">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
         <v>7.4345920314281444E-2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0.1387862873421718</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>0.19504398075803131</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>0.24445619535924734</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>0.28808099282175181</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>0.3267702767439874</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>0.36121939459262042</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>0.39200333574599211</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>0.41960228361880236</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>0.44442125188544235</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="1">
         <v>0.46680430214292035</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="1">
         <v>0.48704596892456742</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="1">
         <v>0.50539967340460468</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="1">
         <v>0.5220847587784978</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="1">
         <v>0.53729173165300481</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="1">
         <v>0.55118680460021641</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="1">
         <v>0.56391531043720267</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="1">
         <v>0.57560475729047178</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="1">
         <v>0.58636714421203395</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="1">
         <v>0.5963010868083789</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
+    <row r="5" spans="1:22">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
         <v>-5.8604556661095743E-2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>-0.11678083924349103</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>-0.17448802461226795</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>-0.23168628341320835</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>-0.28833618327924054</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>-0.34439836996876116</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>-0.39983318516774291</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>-0.45460058100867851</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>-0.50865989173411208</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>-0.56196992615853658</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="1">
         <v>-0.61448886482108267</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <v>-0.66617449926014538</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="1">
         <v>-0.71698423762054075</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="1">
         <v>-0.76687546770195336</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="1">
         <v>-0.81580565499870039</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="1">
         <v>-0.86373280603844371</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="1">
         <v>-0.91061563837583892</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="1">
         <v>-0.9564141159027354</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="1">
         <v>-1.0010896635263178</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="1">
         <v>-1.0446057291203115</v>
       </c>
     </row>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_graph_output.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\GRNmap\test_files\sixteen_tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15280" tabRatio="644" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25358" windowHeight="15278" tabRatio="644" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -26,7 +31,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001" fullPrecision="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -161,7 +166,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -247,7 +252,7 @@
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -651,20 +656,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5859375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -672,7 +677,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -680,7 +685,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -688,7 +693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -697,7 +702,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -706,54 +711,54 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" s="2"/>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D24" s="2"/>
     </row>
   </sheetData>
@@ -770,19 +775,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -850,7 +855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -858,67 +863,67 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>-8.9800321449215181E-2</v>
+        <v>-8.9800321449215195E-2</v>
       </c>
       <c r="D2" s="1">
-        <v>-0.17783723566962159</v>
+        <v>-0.17783723566962201</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.26414317546565297</v>
+        <v>-0.26414317546565302</v>
       </c>
       <c r="F2" s="1">
-        <v>-0.34875359461636379</v>
+        <v>-0.34875359461636402</v>
       </c>
       <c r="G2" s="1">
-        <v>-0.43170548228292405</v>
+        <v>-0.43170548228292399</v>
       </c>
       <c r="H2" s="1">
-        <v>-0.51303803932179959</v>
+        <v>-0.51303803932180003</v>
       </c>
       <c r="I2" s="1">
-        <v>-0.59279132706349291</v>
+        <v>-0.59279132706349302</v>
       </c>
       <c r="J2" s="1">
-        <v>-0.67100682676036338</v>
+        <v>-0.67100682676036305</v>
       </c>
       <c r="K2" s="1">
-        <v>-0.74772630271945129</v>
+        <v>-0.74772630271945095</v>
       </c>
       <c r="L2" s="1">
-        <v>-0.82299227598659463</v>
+        <v>-0.82299227598659497</v>
       </c>
       <c r="M2" s="1">
-        <v>-0.89684708166550642</v>
+        <v>-0.89684708166550597</v>
       </c>
       <c r="N2" s="1">
-        <v>-0.9693332787484078</v>
+        <v>-0.96933327874840802</v>
       </c>
       <c r="O2" s="1">
-        <v>-1.0404928780646217</v>
+        <v>-1.0404928780646201</v>
       </c>
       <c r="P2" s="1">
-        <v>-1.1103677031390775</v>
+        <v>-1.11036770313908</v>
       </c>
       <c r="Q2" s="1">
-        <v>-1.1789987643329474</v>
+        <v>-1.17899876433295</v>
       </c>
       <c r="R2" s="1">
-        <v>-1.2464265806106019</v>
+        <v>-1.2464265806106001</v>
       </c>
       <c r="S2" s="1">
-        <v>-1.3126906763676192</v>
+        <v>-1.31269067636762</v>
       </c>
       <c r="T2" s="1">
-        <v>-1.377829870641254</v>
+        <v>-1.37782987064125</v>
       </c>
       <c r="U2" s="1">
-        <v>-1.4418818751815392</v>
+        <v>-1.4418818751815401</v>
       </c>
       <c r="V2" s="1">
-        <v>-1.5048835406461176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+        <v>-1.5048835406461201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,67 +931,67 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>-5.3554472545191481E-2</v>
+        <v>-5.3554472545191502E-2</v>
       </c>
       <c r="D3" s="1">
-        <v>-0.10534033101746187</v>
+        <v>-0.105340331017462</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.15541295136192257</v>
+        <v>-0.15541295136192301</v>
       </c>
       <c r="F3" s="1">
-        <v>-0.2038273200147003</v>
+        <v>-0.2038273200147</v>
       </c>
       <c r="G3" s="1">
-        <v>-0.25063751475470381</v>
+        <v>-0.25063751475470403</v>
       </c>
       <c r="H3" s="1">
-        <v>-0.29589686364454737</v>
+        <v>-0.29589686364454698</v>
       </c>
       <c r="I3" s="1">
-        <v>-0.33965752021893808</v>
+        <v>-0.33965752021893802</v>
       </c>
       <c r="J3" s="1">
-        <v>-0.38197061557552464</v>
+        <v>-0.38197061557552497</v>
       </c>
       <c r="K3" s="1">
-        <v>-0.42288593483478537</v>
+        <v>-0.42288593483478498</v>
       </c>
       <c r="L3" s="1">
-        <v>-0.46245206329717115</v>
+        <v>-0.46245206329717098</v>
       </c>
       <c r="M3" s="1">
-        <v>-0.5007161439761052</v>
+        <v>-0.50071614397610498</v>
       </c>
       <c r="N3" s="1">
-        <v>-0.53772401759212052</v>
+        <v>-0.53772401759212096</v>
       </c>
       <c r="O3" s="1">
-        <v>-0.57352004400459444</v>
+        <v>-0.573520044004594</v>
       </c>
       <c r="P3" s="1">
-        <v>-0.60814723537794035</v>
+        <v>-0.60814723537794002</v>
       </c>
       <c r="Q3" s="1">
-        <v>-0.64164712729223439</v>
+        <v>-0.64164712729223405</v>
       </c>
       <c r="R3" s="1">
-        <v>-0.6740599043814397</v>
+        <v>-0.67405990438144003</v>
       </c>
       <c r="S3" s="1">
-        <v>-0.70542430959397973</v>
+        <v>-0.70542430959397995</v>
       </c>
       <c r="T3" s="1">
-        <v>-0.73577776176435217</v>
+        <v>-0.73577776176435195</v>
       </c>
       <c r="U3" s="1">
-        <v>-0.76515629383282446</v>
+        <v>-0.76515629383282402</v>
       </c>
       <c r="V3" s="1">
         <v>-0.79359465825360598</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1054,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1062,61 +1067,61 @@
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>-4.5851325928348091E-2</v>
+        <v>-4.5851325928348098E-2</v>
       </c>
       <c r="D5" s="1">
-        <v>-9.0834146060417342E-2</v>
+        <v>-9.0834146060417301E-2</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.13497660518656263</v>
+        <v>-0.13497660518656299</v>
       </c>
       <c r="F5" s="1">
-        <v>-0.17830584843860664</v>
+        <v>-0.178305848438607</v>
       </c>
       <c r="G5" s="1">
-        <v>-0.22084797637772191</v>
+        <v>-0.22084797637772199</v>
       </c>
       <c r="H5" s="1">
-        <v>-0.2626281490883578</v>
+        <v>-0.26262814908835802</v>
       </c>
       <c r="I5" s="1">
-        <v>-0.30367054964856338</v>
+        <v>-0.30367054964856299</v>
       </c>
       <c r="J5" s="1">
-        <v>-0.34399847763154839</v>
+        <v>-0.34399847763154801</v>
       </c>
       <c r="K5" s="1">
-        <v>-0.38363432380541679</v>
+        <v>-0.38363432380541701</v>
       </c>
       <c r="L5" s="1">
-        <v>-0.42259965397966681</v>
+        <v>-0.42259965397966698</v>
       </c>
       <c r="M5" s="1">
-        <v>-0.46091519214766763</v>
+        <v>-0.46091519214766802</v>
       </c>
       <c r="N5" s="1">
-        <v>-0.49860089557940129</v>
+        <v>-0.49860089557940102</v>
       </c>
       <c r="O5" s="1">
-        <v>-0.53567594426493337</v>
+        <v>-0.53567594426493303</v>
       </c>
       <c r="P5" s="1">
-        <v>-0.57215880810708175</v>
+        <v>-0.57215880810708197</v>
       </c>
       <c r="Q5" s="1">
         <v>-0.60806724102672904</v>
       </c>
       <c r="R5" s="1">
-        <v>-0.64341834105334972</v>
+        <v>-0.64341834105335005</v>
       </c>
       <c r="S5" s="1">
         <v>-0.678228547842608</v>
       </c>
       <c r="T5" s="1">
-        <v>-0.71251369640221618</v>
+        <v>-0.71251369640221596</v>
       </c>
       <c r="U5" s="1">
-        <v>-0.74628901707297057</v>
+        <v>-0.74628901707297102</v>
       </c>
       <c r="V5" s="1">
         <v>-0.77956918237391504</v>
@@ -1133,19 +1138,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1162,15 +1167,15 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>6.7986997775525911E-17</v>
+        <v>6.7986997775525899E-17</v>
       </c>
       <c r="C2" s="1">
-        <v>1.3597399555105182E-16</v>
+        <v>1.35973995551052E-16</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -1179,12 +1184,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1">
-        <v>3.3993498887762956E-17</v>
+        <v>3.3993498887762999E-17</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -1196,7 +1201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1213,7 +1218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1241,19 +1246,19 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1270,15 +1275,15 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>6.7986997775525911E-17</v>
+        <v>6.7986997775525899E-17</v>
       </c>
       <c r="C2" s="1">
-        <v>1.3597399555105182E-16</v>
+        <v>1.35973995551052E-16</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -1287,12 +1292,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1">
-        <v>3.3993498887762956E-17</v>
+        <v>3.3993498887762999E-17</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -1304,7 +1309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1321,7 +1326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1349,19 +1354,19 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1369,36 +1374,36 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>0.69740719366499726</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.69740719366499704</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1">
-        <v>1.1568003225019745</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>1.1568003225019701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>2.7591362546192006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>2.7591362546192002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>2.3785237031173372</v>
+        <v>2.3785237031173398</v>
       </c>
     </row>
   </sheetData>
@@ -1412,19 +1417,19 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -1441,12 +1446,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>1.1390375115164613</v>
+        <v>1.1390375115164599</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1458,7 +1463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1466,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>1.1651979266914683</v>
+        <v>1.16519792669147</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -1475,7 +1480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1486,13 +1491,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1.2314115131035213</v>
+        <v>1.2314115131035199</v>
       </c>
       <c r="E4" s="1">
-        <v>1.3472374603129511</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>1.34723746031295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1503,10 +1508,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>8.557768521733114E-2</v>
+        <v>8.5577685217331098E-2</v>
       </c>
       <c r="E5" s="1">
-        <v>0.39961091387211822</v>
+        <v>0.399610913872118</v>
       </c>
     </row>
   </sheetData>
@@ -1520,19 +1525,19 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1540,31 +1545,31 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="1">
-        <v>5.6205951121146291E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>5.62059511211463E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="1">
-        <v>2.1248299830536412</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>2.1248299830536399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="1">
-        <v>1.2133358649639586E-33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>1.2133358649639599E-33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -1572,12 +1577,12 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -1588,7 +1593,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1596,40 +1601,40 @@
         <v>8.9376526217303694E-3</v>
       </c>
       <c r="C8" s="1">
-        <v>1.7875305243460739E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>1.7875305243460701E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1">
-        <v>5.5824917406711817E-3</v>
+        <v>5.58249174067118E-3</v>
       </c>
       <c r="C9" s="1">
-        <v>1.1164983481342363E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>1.11649834813424E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="1">
-        <v>3.9542102024695807E-3</v>
+        <v>3.9542102024695798E-3</v>
       </c>
       <c r="C10" s="1">
-        <v>3.9542102024695807E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>3.9542102024695798E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="1">
-        <v>0.27504444391037791</v>
+        <v>0.27504444391037802</v>
       </c>
       <c r="C11" s="1">
-        <v>0.50658263183573171</v>
+        <v>0.50658263183573204</v>
       </c>
     </row>
   </sheetData>
@@ -1643,21 +1648,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5859375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1665,7 +1670,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1673,7 +1678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1681,7 +1686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1689,7 +1694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1697,43 +1702,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
     </row>
   </sheetData>
@@ -1750,19 +1755,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="10.5703125" style="1"/>
+    <col min="1" max="16384" width="10.5859375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1785,10 +1790,10 @@
         <v>0.8</v>
       </c>
       <c r="H1" s="6">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="I1" s="6">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="J1" s="6">
         <v>1.2</v>
@@ -1804,195 +1809,195 @@
       </c>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="C2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="D2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="E2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="F2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="G2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="H2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="I2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="J2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="K2" s="6">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="L2" s="6">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="M2" s="6">
-        <v>-1.2174432654761544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>-1.21744326547615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="C3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="D3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="E3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="F3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="G3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="H3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="I3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="J3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="K3" s="6">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="L3" s="6">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="M3" s="6">
-        <v>-0.64984386018298912</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>-0.64984386018298901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="6">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="C4" s="6">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="D4" s="6">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="E4" s="6">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="F4" s="6">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="G4" s="6">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="H4" s="6">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="I4" s="6">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="J4" s="6">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="K4" s="6">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
       <c r="L4" s="6">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
       <c r="M4" s="6">
-        <v>0.54159993841241572</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>0.54159993841241605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="6">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="C5" s="6">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="D5" s="6">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="E5" s="6">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="F5" s="6">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="G5" s="6">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="H5" s="6">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="I5" s="6">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="J5" s="6">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="K5" s="6">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
       <c r="L5" s="6">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
       <c r="M5" s="6">
-        <v>-1.1097262320569594</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>-1.1097262320569601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F6" s="3"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="I10" s="3"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F12" s="3"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H14" s="3"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="18" spans="3:12">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
       <c r="H18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="3:12">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E20" s="3"/>
       <c r="L20" s="3"/>
     </row>
@@ -2010,19 +2015,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -2045,10 +2050,10 @@
         <v>0.8</v>
       </c>
       <c r="H1" s="6">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="I1" s="6">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="J1" s="6">
         <v>1.2</v>
@@ -2064,89 +2069,89 @@
       </c>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="C2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="D2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="E2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="F2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="G2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="H2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="I2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="J2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="K2" s="6">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="L2" s="6">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="M2" s="6">
-        <v>-1.2174432654761544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>-1.21744326547615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="C3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="D3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="E3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="F3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="G3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="H3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="I3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="J3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="K3" s="6">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="L3" s="6">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="M3" s="6">
-        <v>-0.64984386018298912</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>-0.64984386018298901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2187,92 +2192,92 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="6">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="C5" s="6">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="D5" s="6">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="E5" s="6">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="F5" s="6">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="G5" s="6">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="H5" s="6">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="I5" s="6">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="J5" s="6">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="K5" s="6">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
       <c r="L5" s="6">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
       <c r="M5" s="6">
-        <v>-0.40259011361710589</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>-0.402590113617106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="K7" s="3"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
     </row>
-    <row r="18" spans="6:13">
+    <row r="18" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="6:13">
+    <row r="19" spans="6:13" x14ac:dyDescent="0.35">
       <c r="H19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="6:13">
+    <row r="20" spans="6:13" x14ac:dyDescent="0.35">
       <c r="H20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="22" spans="6:13">
+    <row r="22" spans="6:13" x14ac:dyDescent="0.35">
       <c r="K22" s="3"/>
       <c r="M22" s="3"/>
     </row>
@@ -2289,34 +2294,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
-    <col min="2" max="3" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.703125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="5.1171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.87890625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5859375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.41015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.29296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.29296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.41015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.41015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.1171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.29296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.41015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.29296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.1171875" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -2333,7 +2338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2350,7 +2355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2367,7 +2372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2384,7 +2389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2415,34 +2420,34 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.703125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="5.1171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.87890625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.7109375" style="1"/>
+    <col min="8" max="8" width="5.1171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5859375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.41015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.29296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.29296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.41015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.41015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.1171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.29296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.41015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.29296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.1171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -2476,7 +2481,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2493,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2510,7 +2515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2527,7 +2532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -2558,20 +2563,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="21.1171875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2579,7 +2584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2587,7 +2592,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2595,7 +2600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2603,7 +2608,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2611,7 +2616,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2619,7 +2624,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2627,7 +2632,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -2635,7 +2640,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -2643,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -2651,7 +2656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -2659,7 +2664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2667,7 +2672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="12.75" customHeight="1">
+    <row r="13" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -2675,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="12.75" customHeight="1">
+    <row r="14" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -2692,7 +2697,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -2703,7 +2708,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -2717,7 +2722,7 @@
         <v>0.2</v>
       </c>
       <c r="E16" s="1">
-        <v>0.30000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="F16" s="1">
         <v>0.4</v>
@@ -2726,10 +2731,10 @@
         <v>0.5</v>
       </c>
       <c r="H16" s="1">
-        <v>0.60000000000000009</v>
+        <v>0.6</v>
       </c>
       <c r="I16" s="1">
-        <v>0.70000000000000007</v>
+        <v>0.7</v>
       </c>
       <c r="J16" s="1">
         <v>0.8</v>
@@ -2744,13 +2749,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="O16" s="1">
         <v>1.3</v>
       </c>
       <c r="P16" s="1">
-        <v>1.4000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="Q16" s="1">
         <v>1.5</v>
@@ -2759,13 +2764,13 @@
         <v>1.6</v>
       </c>
       <c r="S16" s="1">
-        <v>1.7000000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="T16" s="1">
         <v>1.8</v>
       </c>
       <c r="U16" s="1">
-        <v>1.9000000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="V16" s="1">
         <v>2</v>
@@ -2785,19 +2790,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -2805,7 +2810,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2813,7 +2818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2821,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2829,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -2837,10 +2842,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
     </row>
   </sheetData>
@@ -2855,19 +2860,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -2935,7 +2940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2943,67 +2948,67 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>-8.9800321449215181E-2</v>
+        <v>-8.9800321449215195E-2</v>
       </c>
       <c r="D2" s="1">
-        <v>-0.17783723566962159</v>
+        <v>-0.17783723566962201</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.26414317546565297</v>
+        <v>-0.26414317546565302</v>
       </c>
       <c r="F2" s="1">
-        <v>-0.34875359461636379</v>
+        <v>-0.34875359461636402</v>
       </c>
       <c r="G2" s="1">
-        <v>-0.43170548228292405</v>
+        <v>-0.43170548228292399</v>
       </c>
       <c r="H2" s="1">
-        <v>-0.51303803932179959</v>
+        <v>-0.51303803932180003</v>
       </c>
       <c r="I2" s="1">
-        <v>-0.59279132706349291</v>
+        <v>-0.59279132706349302</v>
       </c>
       <c r="J2" s="1">
-        <v>-0.67100682676036338</v>
+        <v>-0.67100682676036305</v>
       </c>
       <c r="K2" s="1">
-        <v>-0.74772630271945129</v>
+        <v>-0.74772630271945095</v>
       </c>
       <c r="L2" s="1">
-        <v>-0.82299227598659463</v>
+        <v>-0.82299227598659497</v>
       </c>
       <c r="M2" s="1">
-        <v>-0.89684708166550642</v>
+        <v>-0.89684708166550597</v>
       </c>
       <c r="N2" s="1">
-        <v>-0.9693332787484078</v>
+        <v>-0.96933327874840802</v>
       </c>
       <c r="O2" s="1">
-        <v>-1.0404928780646217</v>
+        <v>-1.0404928780646201</v>
       </c>
       <c r="P2" s="1">
-        <v>-1.1103677031390775</v>
+        <v>-1.11036770313908</v>
       </c>
       <c r="Q2" s="1">
-        <v>-1.1789987643329474</v>
+        <v>-1.17899876433295</v>
       </c>
       <c r="R2" s="1">
-        <v>-1.2464265806106019</v>
+        <v>-1.2464265806106001</v>
       </c>
       <c r="S2" s="1">
-        <v>-1.3126906763676192</v>
+        <v>-1.31269067636762</v>
       </c>
       <c r="T2" s="1">
-        <v>-1.377829870641254</v>
+        <v>-1.37782987064125</v>
       </c>
       <c r="U2" s="1">
-        <v>-1.4418818751815392</v>
+        <v>-1.4418818751815401</v>
       </c>
       <c r="V2" s="1">
-        <v>-1.5048835406461176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+        <v>-1.5048835406461201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -3011,67 +3016,67 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>-5.3554472545191481E-2</v>
+        <v>-5.3554472545191502E-2</v>
       </c>
       <c r="D3" s="1">
-        <v>-0.10534033101746187</v>
+        <v>-0.105340331017462</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.15541295136192257</v>
+        <v>-0.15541295136192301</v>
       </c>
       <c r="F3" s="1">
-        <v>-0.2038273200147003</v>
+        <v>-0.2038273200147</v>
       </c>
       <c r="G3" s="1">
-        <v>-0.25063751475470381</v>
+        <v>-0.25063751475470403</v>
       </c>
       <c r="H3" s="1">
-        <v>-0.29589686364454737</v>
+        <v>-0.29589686364454698</v>
       </c>
       <c r="I3" s="1">
-        <v>-0.33965752021893808</v>
+        <v>-0.33965752021893802</v>
       </c>
       <c r="J3" s="1">
-        <v>-0.38197061557552464</v>
+        <v>-0.38197061557552497</v>
       </c>
       <c r="K3" s="1">
-        <v>-0.42288593483478537</v>
+        <v>-0.42288593483478498</v>
       </c>
       <c r="L3" s="1">
-        <v>-0.46245206329717115</v>
+        <v>-0.46245206329717098</v>
       </c>
       <c r="M3" s="1">
-        <v>-0.5007161439761052</v>
+        <v>-0.50071614397610498</v>
       </c>
       <c r="N3" s="1">
-        <v>-0.53772401759212052</v>
+        <v>-0.53772401759212096</v>
       </c>
       <c r="O3" s="1">
-        <v>-0.57352004400459444</v>
+        <v>-0.573520044004594</v>
       </c>
       <c r="P3" s="1">
-        <v>-0.60814723537794035</v>
+        <v>-0.60814723537794002</v>
       </c>
       <c r="Q3" s="1">
-        <v>-0.64164712729223439</v>
+        <v>-0.64164712729223405</v>
       </c>
       <c r="R3" s="1">
-        <v>-0.6740599043814397</v>
+        <v>-0.67405990438144003</v>
       </c>
       <c r="S3" s="1">
-        <v>-0.70542430959397973</v>
+        <v>-0.70542430959397995</v>
       </c>
       <c r="T3" s="1">
-        <v>-0.73577776176435217</v>
+        <v>-0.73577776176435195</v>
       </c>
       <c r="U3" s="1">
-        <v>-0.76515629383282446</v>
+        <v>-0.76515629383282402</v>
       </c>
       <c r="V3" s="1">
         <v>-0.79359465825360598</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3079,67 +3084,67 @@
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>7.4345920314281444E-2</v>
+        <v>7.4345920314281402E-2</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1387862873421718</v>
+        <v>0.13878628734217199</v>
       </c>
       <c r="E4" s="1">
-        <v>0.19504398075803131</v>
+        <v>0.195043980758031</v>
       </c>
       <c r="F4" s="1">
-        <v>0.24445619535924734</v>
+        <v>0.24445619535924701</v>
       </c>
       <c r="G4" s="1">
-        <v>0.28808099282175181</v>
+        <v>0.28808099282175198</v>
       </c>
       <c r="H4" s="1">
-        <v>0.3267702767439874</v>
+        <v>0.32677027674398701</v>
       </c>
       <c r="I4" s="1">
-        <v>0.36121939459262042</v>
+        <v>0.36121939459261998</v>
       </c>
       <c r="J4" s="1">
-        <v>0.39200333574599211</v>
+        <v>0.392003335745992</v>
       </c>
       <c r="K4" s="1">
-        <v>0.41960228361880236</v>
+        <v>0.41960228361880197</v>
       </c>
       <c r="L4" s="1">
-        <v>0.44442125188544235</v>
+        <v>0.44442125188544201</v>
       </c>
       <c r="M4" s="1">
-        <v>0.46680430214292035</v>
+        <v>0.46680430214292001</v>
       </c>
       <c r="N4" s="1">
-        <v>0.48704596892456742</v>
+        <v>0.48704596892456697</v>
       </c>
       <c r="O4" s="1">
-        <v>0.50539967340460468</v>
+        <v>0.50539967340460501</v>
       </c>
       <c r="P4" s="1">
-        <v>0.5220847587784978</v>
+        <v>0.52208475877849803</v>
       </c>
       <c r="Q4" s="1">
-        <v>0.53729173165300481</v>
+        <v>0.53729173165300503</v>
       </c>
       <c r="R4" s="1">
-        <v>0.55118680460021641</v>
+        <v>0.55118680460021596</v>
       </c>
       <c r="S4" s="1">
-        <v>0.56391531043720267</v>
+        <v>0.563915310437203</v>
       </c>
       <c r="T4" s="1">
-        <v>0.57560475729047178</v>
+        <v>0.575604757290472</v>
       </c>
       <c r="U4" s="1">
         <v>0.58636714421203395</v>
       </c>
       <c r="V4" s="1">
-        <v>0.5963010868083789</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+        <v>0.59630108680837901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -3147,64 +3152,64 @@
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>-5.8604556661095743E-2</v>
+        <v>-5.8604556661095701E-2</v>
       </c>
       <c r="D5" s="1">
-        <v>-0.11678083924349103</v>
+        <v>-0.116780839243491</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.17448802461226795</v>
+        <v>-0.17448802461226801</v>
       </c>
       <c r="F5" s="1">
-        <v>-0.23168628341320835</v>
+        <v>-0.23168628341320799</v>
       </c>
       <c r="G5" s="1">
-        <v>-0.28833618327924054</v>
+        <v>-0.28833618327924099</v>
       </c>
       <c r="H5" s="1">
-        <v>-0.34439836996876116</v>
+        <v>-0.344398369968761</v>
       </c>
       <c r="I5" s="1">
-        <v>-0.39983318516774291</v>
+        <v>-0.39983318516774302</v>
       </c>
       <c r="J5" s="1">
-        <v>-0.45460058100867851</v>
+        <v>-0.45460058100867901</v>
       </c>
       <c r="K5" s="1">
-        <v>-0.50865989173411208</v>
+        <v>-0.50865989173411197</v>
       </c>
       <c r="L5" s="1">
-        <v>-0.56196992615853658</v>
+        <v>-0.56196992615853703</v>
       </c>
       <c r="M5" s="1">
-        <v>-0.61448886482108267</v>
+        <v>-0.614488864821083</v>
       </c>
       <c r="N5" s="1">
-        <v>-0.66617449926014538</v>
+        <v>-0.66617449926014505</v>
       </c>
       <c r="O5" s="1">
-        <v>-0.71698423762054075</v>
+        <v>-0.71698423762054098</v>
       </c>
       <c r="P5" s="1">
-        <v>-0.76687546770195336</v>
+        <v>-0.76687546770195303</v>
       </c>
       <c r="Q5" s="1">
-        <v>-0.81580565499870039</v>
+        <v>-0.81580565499869995</v>
       </c>
       <c r="R5" s="1">
-        <v>-0.86373280603844371</v>
+        <v>-0.86373280603844405</v>
       </c>
       <c r="S5" s="1">
-        <v>-0.91061563837583892</v>
+        <v>-0.91061563837583903</v>
       </c>
       <c r="T5" s="1">
-        <v>-0.9564141159027354</v>
+        <v>-0.95641411590273495</v>
       </c>
       <c r="U5" s="1">
-        <v>-1.0010896635263178</v>
+        <v>-1.00108966352632</v>
       </c>
       <c r="V5" s="1">
-        <v>-1.0446057291203115</v>
+        <v>-1.0446057291203099</v>
       </c>
     </row>
   </sheetData>
